--- a/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -2117,14 +2117,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>組織代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>組織名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>生效起日</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2133,14 +2125,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>上層組織代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可查詢範圍組織代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>異動來源</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2153,14 +2137,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>組織類型代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>組織類型名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>vw_org_unique</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2242,10 +2218,6 @@
   </si>
   <si>
     <t>varchar2(20)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>(預設為本身組織代號)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2455,6 +2427,34 @@
   <si>
     <t>權限職稱名稱</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上層單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可查詢範圍單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位類型代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位類型名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>(預設為本身單位代號)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3260,13 +3260,70 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3275,27 +3332,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3304,42 +3340,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3350,6 +3350,138 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3359,10 +3491,34 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3374,36 +3530,6 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3419,131 +3545,11 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3551,15 +3557,63 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3569,65 +3623,17 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3643,12 +3649,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9879,7 +9879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -10334,25 +10334,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -10360,25 +10360,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>282</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -10386,25 +10386,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -10536,152 +10536,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="148"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="157"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="148"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="151"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="157"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="152"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="155" t="s">
+      <c r="A11" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="97"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="160" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="A15" s="137" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -10690,70 +10690,70 @@
       <c r="B16" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="165"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="123" t="s">
-        <v>273</v>
-      </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="124"/>
+      <c r="A17" s="125" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="123"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="124"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="158"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
-      <c r="A20" s="160" t="s">
-        <v>294</v>
-      </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="162"/>
+      <c r="A20" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -10762,104 +10762,104 @@
       <c r="B21" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="163" t="s">
+      <c r="C21" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="142"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C22" s="176" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="178"/>
+        <v>289</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="181"/>
+        <v>291</v>
+      </c>
+      <c r="C23" s="131"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="213"/>
-      <c r="B24" s="216"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="217"/>
+      <c r="A24" s="215"/>
+      <c r="B24" s="218"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="219"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="139"/>
     </row>
     <row r="26" spans="1:12" s="55" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="113"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
     </row>
     <row r="27" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="156" t="s">
+      <c r="A27" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="158"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="163"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
     </row>
@@ -10876,186 +10876,186 @@
       <c r="D28" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="174" t="s">
+      <c r="E28" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="62"/>
       <c r="B29" s="62"/>
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
-      <c r="E29" s="159" t="s">
+      <c r="E29" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="146"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A31" s="129" t="s">
-        <v>278</v>
-      </c>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="131"/>
+      <c r="A31" s="168" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" s="169"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="170"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A32" s="135"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="137"/>
+      <c r="A32" s="174"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1">
-      <c r="A33" s="120"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="122"/>
+      <c r="A33" s="164"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="166"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="123"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="124"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="127"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="140" t="s">
+      <c r="A35" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="142"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="184"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="139"/>
-      <c r="D36" s="120" t="s">
+      <c r="C36" s="181"/>
+      <c r="D36" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="89"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="97"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="125"/>
-      <c r="B37" s="218"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
-      <c r="E37" s="218"/>
-      <c r="F37" s="218"/>
-      <c r="G37" s="218"/>
-      <c r="H37" s="218"/>
-      <c r="I37" s="218"/>
-      <c r="J37" s="219"/>
+      <c r="A37" s="177"/>
+      <c r="B37" s="213"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="214"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="89"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="97"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="66"/>
-      <c r="B39" s="123"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="89"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="97"/>
     </row>
     <row r="40" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="125"/>
-      <c r="B40" s="218"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="218"/>
-      <c r="I40" s="218"/>
-      <c r="J40" s="219"/>
+      <c r="A40" s="177"/>
+      <c r="B40" s="213"/>
+      <c r="C40" s="213"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="213"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="213"/>
+      <c r="J40" s="214"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="66"/>
-      <c r="B41" s="123"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="89"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="97"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="67" t="s">
@@ -11078,14 +11078,14 @@
       <c r="B43" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="123"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="89"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="97"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="66">
@@ -11094,17 +11094,40 @@
       <c r="B44" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="143"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="149"/>
+      <c r="J44" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="C22:J23"/>
+    <mergeCell ref="A31:J32"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A40:J40"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:J41"/>
@@ -11121,29 +11144,6 @@
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="C22:J23"/>
-    <mergeCell ref="A31:J32"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A20:J20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11823,7 +11823,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="88" t="s">
         <v>161</v>
       </c>
       <c r="K1" s="7"/>
@@ -11846,7 +11846,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="104"/>
+      <c r="J2" s="89"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:19" s="18" customFormat="1" ht="12.75">
@@ -11859,7 +11859,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="104"/>
+      <c r="J3" s="89"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:19" s="18" customFormat="1" ht="12.75">
@@ -11876,77 +11876,77 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:19" s="80" customFormat="1" ht="16.5">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="187" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="210" t="s">
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="189" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="203" t="s">
+      <c r="H5" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="210"/>
+      <c r="I5" s="189"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:19" s="80" customFormat="1" ht="16.5">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="187" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="210" t="s">
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
       <c r="G6" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="203" t="s">
+      <c r="H6" s="190" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="210"/>
+      <c r="I6" s="189"/>
     </row>
     <row r="7" spans="1:19" s="80" customFormat="1" ht="15.75">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="210" t="s">
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
     </row>
     <row r="8" spans="1:19" s="80" customFormat="1" ht="16.5">
       <c r="A8" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="211" t="s">
+      <c r="B8" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
       <c r="E8" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
       <c r="I8" s="75" t="s">
         <v>153</v>
       </c>
@@ -11955,17 +11955,17 @@
       <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
       <c r="E9" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="113"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="205"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
       <c r="I9" s="74" t="s">
         <v>145</v>
       </c>
@@ -11974,17 +11974,17 @@
       <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="190" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
       <c r="E10" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
       <c r="I10" s="74" t="s">
         <v>145</v>
       </c>
@@ -11993,17 +11993,17 @@
       <c r="A11" s="77">
         <v>3</v>
       </c>
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="190" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
       <c r="E11" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
       <c r="I11" s="74" t="s">
         <v>145</v>
       </c>
@@ -12012,17 +12012,17 @@
       <c r="A12" s="77">
         <v>4</v>
       </c>
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="190" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="204"/>
-      <c r="D12" s="204"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
       <c r="E12" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="205"/>
-      <c r="H12" s="205"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="191"/>
       <c r="I12" s="74" t="s">
         <v>145</v>
       </c>
@@ -12031,15 +12031,15 @@
       <c r="A13" s="77">
         <v>5</v>
       </c>
-      <c r="B13" s="203" t="s">
+      <c r="B13" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
       <c r="E13" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="193"/>
+      <c r="F13" s="195"/>
       <c r="G13" s="220"/>
       <c r="H13" s="221"/>
       <c r="I13" s="74" t="s">
@@ -12050,45 +12050,45 @@
       <c r="A14" s="77">
         <v>6</v>
       </c>
-      <c r="B14" s="203"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="204"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
       <c r="E14" s="77"/>
-      <c r="F14" s="193"/>
+      <c r="F14" s="195"/>
       <c r="G14" s="220"/>
       <c r="H14" s="221"/>
       <c r="I14" s="74"/>
     </row>
     <row r="15" spans="1:19" s="80" customFormat="1" ht="15.75">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="187" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
     </row>
     <row r="16" spans="1:19" s="80" customFormat="1" ht="16.5">
       <c r="A16" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="201" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="188"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="187" t="s">
+      <c r="C16" s="207"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="201" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="189"/>
-      <c r="G16" s="187" t="s">
+      <c r="F16" s="202"/>
+      <c r="G16" s="201" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="189"/>
+      <c r="H16" s="202"/>
       <c r="I16" s="75" t="s">
         <v>94</v>
       </c>
@@ -12097,19 +12097,19 @@
       <c r="A17" s="77">
         <v>1</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="96" t="s">
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="197"/>
-      <c r="G17" s="206" t="s">
+      <c r="F17" s="199"/>
+      <c r="G17" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="197"/>
+      <c r="H17" s="199"/>
       <c r="I17" s="74" t="s">
         <v>136</v>
       </c>
@@ -12118,153 +12118,191 @@
       <c r="A18" s="77">
         <v>2</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="197"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="199"/>
       <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:9" s="80" customFormat="1" ht="16.5">
       <c r="A19" s="77">
         <v>3</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="197"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="199"/>
       <c r="I19" s="74"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="185" t="s">
+      <c r="A20" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="186"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
     </row>
     <row r="21" spans="1:9" ht="352.5" customHeight="1">
       <c r="A21" s="77">
         <v>1</v>
       </c>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="96" t="s">
+      <c r="C21" s="209"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="191">
+      <c r="A22" s="209">
         <v>2</v>
       </c>
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="185" t="s">
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A23" s="191"/>
-      <c r="B23" s="185" t="s">
+      <c r="A23" s="209"/>
+      <c r="B23" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="79" t="s">
         <v>132</v>
       </c>
       <c r="F23" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="207" t="s">
+      <c r="G23" s="204" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="208"/>
-      <c r="I23" s="209"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="206"/>
     </row>
     <row r="24" spans="1:9" ht="16.5">
-      <c r="A24" s="191"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
+      <c r="A24" s="209"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
       <c r="E24" s="77"/>
       <c r="F24" s="73"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="199"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="186"/>
     </row>
     <row r="25" spans="1:9" ht="16.5">
-      <c r="A25" s="191"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
+      <c r="A25" s="209"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="77"/>
       <c r="F25" s="78"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="199"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="186"/>
     </row>
     <row r="26" spans="1:9" ht="16.5">
-      <c r="A26" s="191"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
+      <c r="A26" s="209"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="212"/>
       <c r="E26" s="77"/>
       <c r="F26" s="78"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="199"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="186"/>
     </row>
     <row r="27" spans="1:9" ht="16.5">
-      <c r="A27" s="191"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="201"/>
+      <c r="A27" s="209"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
       <c r="E27" s="77"/>
       <c r="F27" s="78"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="199"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="186"/>
     </row>
     <row r="28" spans="1:9" ht="16.5">
-      <c r="A28" s="191"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
+      <c r="A28" s="209"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
       <c r="E28" s="77" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="77"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="199"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="A20:I20"/>
@@ -12281,44 +12319,6 @@
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -12597,15 +12597,15 @@
       <c r="A1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="88" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="104"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="104"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -12622,243 +12622,250 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="111"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="102"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="114"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="97" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="99"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="88" t="s">
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="97"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="97" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="94"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="88" t="s">
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="114" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="99"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94"/>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="114" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="99"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="111"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="78" customHeight="1">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="113"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="107" t="s">
+      <c r="A63" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="108"/>
-      <c r="H63" s="108"/>
-      <c r="I63" s="108"/>
-      <c r="J63" s="108"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="109"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -12875,13 +12882,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -12952,7 +12952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -13200,7 +13200,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
@@ -13224,7 +13224,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
@@ -13598,152 +13598,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="148"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="157"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="148"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="151"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="157"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="152"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="155" t="s">
+      <c r="A11" s="161" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="97"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -13752,70 +13752,70 @@
       <c r="B16" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="165"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="168"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="145"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="169"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="148"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="158"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="160" t="s">
-        <v>276</v>
-      </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="162"/>
+      <c r="A20" s="137" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -13824,50 +13824,50 @@
       <c r="B21" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="163" t="s">
+      <c r="C21" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="142"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="176" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="178"/>
+        <v>262</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="181"/>
+        <v>263</v>
+      </c>
+      <c r="C23" s="131"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
       <c r="A24" s="58">
@@ -13876,14 +13876,14 @@
       <c r="B24" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="181"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="133"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
       <c r="A25" s="58">
@@ -13892,52 +13892,52 @@
       <c r="B25" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="184"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="136"/>
     </row>
     <row r="26" spans="1:12" s="55" customFormat="1">
-      <c r="A26" s="123"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="124"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="127"/>
     </row>
     <row r="27" spans="1:12" s="55" customFormat="1">
-      <c r="A27" s="123"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="124"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127"/>
     </row>
     <row r="28" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="173"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="122"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="59" t="s">
@@ -13952,14 +13952,14 @@
       <c r="D29" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="174" t="s">
+      <c r="E29" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
@@ -13968,180 +13968,180 @@
       <c r="B30" s="62"/>
       <c r="C30" s="63"/>
       <c r="D30" s="64"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1">
       <c r="A31" s="65"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="124"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="127"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1">
-      <c r="A32" s="144" t="s">
+      <c r="A32" s="150" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="146"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="152"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="129" t="s">
+      <c r="A33" s="168" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="131"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="170"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1">
-      <c r="A34" s="132"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="134"/>
+      <c r="A34" s="171"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="173"/>
     </row>
     <row r="35" spans="1:10" s="57" customFormat="1">
-      <c r="A35" s="132"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="134"/>
+      <c r="A35" s="171"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="173"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="137"/>
+      <c r="A36" s="174"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="176"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="142"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="184"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="139"/>
-      <c r="D38" s="120" t="s">
+      <c r="C38" s="181"/>
+      <c r="D38" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="89"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="97"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="125"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="127"/>
+      <c r="A39" s="177"/>
+      <c r="B39" s="178"/>
+      <c r="C39" s="178"/>
+      <c r="D39" s="178"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="179"/>
     </row>
     <row r="40" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="66"/>
-      <c r="B40" s="123"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="122"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="164"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="166"/>
     </row>
     <row r="41" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="66"/>
-      <c r="B41" s="123"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="122"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="166"/>
     </row>
     <row r="42" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="125"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="127"/>
+      <c r="A42" s="177"/>
+      <c r="B42" s="178"/>
+      <c r="C42" s="178"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="179"/>
     </row>
     <row r="43" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="123"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="122"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="166"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="67" t="s">
@@ -14164,14 +14164,14 @@
       <c r="B45" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="89"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="97"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="66">
@@ -14180,27 +14180,27 @@
       <c r="B46" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="149"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="149"/>
+      <c r="J46" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="A33:J36"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A37:J37"/>
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="K1:K3"/>
@@ -14217,16 +14217,16 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="A33:J36"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C22:J25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -14906,7 +14906,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="88" t="s">
         <v>66</v>
       </c>
       <c r="K1" s="7"/>
@@ -14929,7 +14929,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="104"/>
+      <c r="J2" s="89"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:19" s="18" customFormat="1" ht="12.75">
@@ -14942,7 +14942,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="104"/>
+      <c r="J3" s="89"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:19" s="18" customFormat="1" ht="12.75">
@@ -14959,77 +14959,77 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:19" s="80" customFormat="1" ht="16.5">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="210" t="s">
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="203" t="s">
+      <c r="H5" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="210"/>
+      <c r="I5" s="189"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:19" s="80" customFormat="1" ht="16.5">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="210" t="s">
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
       <c r="G6" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="203" t="s">
+      <c r="H6" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="210"/>
+      <c r="I6" s="189"/>
     </row>
     <row r="7" spans="1:19" s="80" customFormat="1" ht="15.75">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="210" t="s">
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
     </row>
     <row r="8" spans="1:19" s="80" customFormat="1" ht="16.5">
       <c r="A8" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="211" t="s">
+      <c r="B8" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
       <c r="E8" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
       <c r="I8" s="75" t="s">
         <v>109</v>
       </c>
@@ -15038,17 +15038,17 @@
       <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
       <c r="E9" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="113"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="205"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
       <c r="I9" s="74" t="s">
         <v>1</v>
       </c>
@@ -15057,17 +15057,17 @@
       <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
       <c r="I10" s="74" t="s">
         <v>104</v>
       </c>
@@ -15076,51 +15076,51 @@
       <c r="A11" s="77">
         <v>3</v>
       </c>
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="190" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
       <c r="I11" s="74" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="80" customFormat="1" ht="15.75">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
     </row>
     <row r="13" spans="1:19" s="80" customFormat="1" ht="16.5">
       <c r="A13" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="187" t="s">
+      <c r="C13" s="207"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="201" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="189"/>
-      <c r="G13" s="187" t="s">
+      <c r="F13" s="202"/>
+      <c r="G13" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="189"/>
+      <c r="H13" s="202"/>
       <c r="I13" s="75" t="s">
         <v>94</v>
       </c>
@@ -15129,19 +15129,19 @@
       <c r="A14" s="77">
         <v>1</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="196"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="96" t="s">
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="197"/>
-      <c r="G14" s="206" t="s">
+      <c r="F14" s="199"/>
+      <c r="G14" s="203" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="197"/>
+      <c r="H14" s="199"/>
       <c r="I14" s="74" t="s">
         <v>90</v>
       </c>
@@ -15150,157 +15150,189 @@
       <c r="A15" s="77">
         <v>2</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="197"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="199"/>
       <c r="I15" s="74"/>
     </row>
     <row r="16" spans="1:19" s="80" customFormat="1" ht="16.5">
       <c r="A16" s="77">
         <v>3</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="197"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="199"/>
       <c r="I16" s="74"/>
     </row>
     <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="187" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
     </row>
     <row r="18" spans="1:9" ht="280.5" customHeight="1">
       <c r="A18" s="77">
         <v>1</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="96" t="s">
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="191">
+      <c r="A19" s="209">
         <v>2</v>
       </c>
-      <c r="B19" s="185" t="s">
+      <c r="B19" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="185" t="s">
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A20" s="191"/>
-      <c r="B20" s="185" t="s">
+      <c r="A20" s="209"/>
+      <c r="B20" s="187" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
       <c r="E20" s="79" t="s">
         <v>84</v>
       </c>
       <c r="F20" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="207" t="s">
+      <c r="G20" s="204" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="208"/>
-      <c r="I20" s="209"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="206"/>
     </row>
     <row r="21" spans="1:9" ht="16.5">
-      <c r="A21" s="191"/>
-      <c r="B21" s="113" t="s">
+      <c r="A21" s="209"/>
+      <c r="B21" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="77"/>
       <c r="F21" s="73"/>
-      <c r="G21" s="198" t="s">
+      <c r="G21" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="199"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="186"/>
     </row>
     <row r="22" spans="1:9" ht="16.5">
-      <c r="A22" s="191"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
+      <c r="A22" s="209"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
       <c r="E22" s="77"/>
       <c r="F22" s="78"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="199"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="186"/>
     </row>
     <row r="23" spans="1:9" ht="16.5">
-      <c r="A23" s="191"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="195"/>
+      <c r="A23" s="209"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="212"/>
       <c r="E23" s="77"/>
       <c r="F23" s="78"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="199"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="186"/>
     </row>
     <row r="24" spans="1:9" ht="16.5">
-      <c r="A24" s="191"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="201"/>
+      <c r="A24" s="209"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="77"/>
       <c r="F24" s="78"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="199"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="186"/>
     </row>
     <row r="25" spans="1:9" ht="16.5">
-      <c r="A25" s="191"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
+      <c r="A25" s="209"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="77" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="77"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="199"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="A5:C5"/>
@@ -15317,38 +15349,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -15371,8 +15371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15619,22 +15619,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
       <c r="E12" s="50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J12" s="50"/>
     </row>
@@ -15643,22 +15643,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
       <c r="E13" s="50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J13" s="50"/>
     </row>
@@ -15667,18 +15667,18 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="46"/>
       <c r="E14" s="50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
@@ -15691,18 +15691,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="46"/>
       <c r="E15" s="50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
@@ -15715,18 +15715,18 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="46"/>
       <c r="E16" s="50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
@@ -15739,25 +15739,25 @@
         <v>6</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="46"/>
       <c r="E17" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="50" t="s">
-        <v>246</v>
-      </c>
       <c r="G17" s="50" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="44" t="s">
         <v>68</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -15765,25 +15765,25 @@
         <v>7</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="46"/>
       <c r="E18" s="50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
         <v>68</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -15791,25 +15791,25 @@
         <v>8</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="46"/>
       <c r="E19" s="50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
         <v>68</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -15817,15 +15817,15 @@
         <v>9</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="46"/>
       <c r="E20" s="50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="46"/>
@@ -15839,25 +15839,25 @@
         <v>10</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
         <v>68</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -15865,18 +15865,18 @@
         <v>11</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="46"/>
       <c r="E22" s="50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="44" t="s">
@@ -15910,7 +15910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -15989,152 +15989,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="148"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="157"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="148"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="151"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="157"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="152"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="155" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
+      <c r="A11" s="161" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="97"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="160" t="s">
-        <v>277</v>
-      </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="A15" s="137" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -16143,70 +16143,70 @@
       <c r="B16" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="165"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="123" t="s">
-        <v>273</v>
-      </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="124"/>
+      <c r="A17" s="125" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="213"/>
-      <c r="B18" s="214"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="215"/>
+      <c r="A18" s="215"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="217"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="158"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36" customHeight="1">
-      <c r="A20" s="160" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="162"/>
+      <c r="A20" s="137" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -16215,76 +16215,76 @@
       <c r="B21" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="163" t="s">
+      <c r="C21" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="142"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="C22" s="176" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="178"/>
+        <v>267</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="181"/>
+        <v>268</v>
+      </c>
+      <c r="C23" s="131"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="213"/>
-      <c r="B24" s="216"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="217"/>
+      <c r="A24" s="215"/>
+      <c r="B24" s="218"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="219"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="158"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="163"/>
     </row>
     <row r="26" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="59" t="s">
@@ -16299,14 +16299,14 @@
       <c r="D26" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="174" t="s">
+      <c r="E26" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
     </row>
@@ -16317,146 +16317,146 @@
       <c r="B27" s="62"/>
       <c r="C27" s="63"/>
       <c r="D27" s="64"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
     </row>
     <row r="28" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="144" t="s">
-        <v>277</v>
-      </c>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="146"/>
+      <c r="A28" s="150" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="152"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
     </row>
     <row r="29" spans="1:12" s="55" customFormat="1">
-      <c r="A29" s="129" t="s">
-        <v>278</v>
-      </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="131"/>
+      <c r="A29" s="168" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="170"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A30" s="135"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="137"/>
+      <c r="A30" s="174"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="141"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="142"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="184"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="138" t="s">
+      <c r="B32" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="139"/>
-      <c r="D32" s="120" t="s">
+      <c r="C32" s="181"/>
+      <c r="D32" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="89"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="97"/>
     </row>
     <row r="33" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="125"/>
-      <c r="B33" s="218"/>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="218"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="218"/>
-      <c r="J33" s="219"/>
+      <c r="A33" s="177"/>
+      <c r="B33" s="213"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="214"/>
     </row>
     <row r="34" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="89"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="97"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="89"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="97"/>
     </row>
     <row r="36" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="125"/>
-      <c r="B36" s="218"/>
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
-      <c r="E36" s="218"/>
-      <c r="F36" s="218"/>
-      <c r="G36" s="218"/>
-      <c r="H36" s="218"/>
-      <c r="I36" s="218"/>
-      <c r="J36" s="219"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="213"/>
+      <c r="C36" s="213"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="213"/>
+      <c r="F36" s="213"/>
+      <c r="G36" s="213"/>
+      <c r="H36" s="213"/>
+      <c r="I36" s="213"/>
+      <c r="J36" s="214"/>
     </row>
     <row r="37" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="123"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="97"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="67" t="s">
@@ -16479,14 +16479,14 @@
       <c r="B39" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="89"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="97"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="66">
@@ -16495,24 +16495,29 @@
       <c r="B40" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="143"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B37:C37"/>
@@ -16529,18 +16534,13 @@
     <mergeCell ref="C22:J23"/>
     <mergeCell ref="A29:J30"/>
     <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -17220,7 +17220,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="88" t="s">
         <v>66</v>
       </c>
       <c r="K1" s="7"/>
@@ -17243,7 +17243,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="104"/>
+      <c r="J2" s="89"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:19" s="18" customFormat="1" ht="12.75">
@@ -17256,7 +17256,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="104"/>
+      <c r="J3" s="89"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:19" s="18" customFormat="1" ht="12.75">
@@ -17273,77 +17273,77 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:19" s="80" customFormat="1" ht="16.5">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="210" t="s">
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="203" t="s">
+      <c r="H5" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="210"/>
+      <c r="I5" s="189"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:19" s="80" customFormat="1" ht="16.5">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="210" t="s">
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
       <c r="G6" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="203" t="s">
+      <c r="H6" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="210"/>
+      <c r="I6" s="189"/>
     </row>
     <row r="7" spans="1:19" s="80" customFormat="1" ht="15.75">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="210" t="s">
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="189" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
     </row>
     <row r="8" spans="1:19" s="80" customFormat="1" ht="16.5">
       <c r="A8" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="211" t="s">
+      <c r="B8" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
       <c r="E8" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
       <c r="I8" s="75" t="s">
         <v>109</v>
       </c>
@@ -17352,17 +17352,17 @@
       <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
       <c r="E9" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="113"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="205"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
       <c r="I9" s="74" t="s">
         <v>1</v>
       </c>
@@ -17371,17 +17371,17 @@
       <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="190" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
       <c r="E10" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
       <c r="I10" s="74" t="s">
         <v>1</v>
       </c>
@@ -17390,17 +17390,17 @@
       <c r="A11" s="77">
         <v>3</v>
       </c>
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="190" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
       <c r="E11" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
       <c r="I11" s="74" t="s">
         <v>1</v>
       </c>
@@ -17409,17 +17409,17 @@
       <c r="A12" s="77">
         <v>4</v>
       </c>
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="204"/>
-      <c r="D12" s="204"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
       <c r="E12" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="205"/>
-      <c r="H12" s="205"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="191"/>
       <c r="I12" s="74" t="s">
         <v>1</v>
       </c>
@@ -17428,15 +17428,15 @@
       <c r="A13" s="77">
         <v>5</v>
       </c>
-      <c r="B13" s="203" t="s">
+      <c r="B13" s="190" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
       <c r="E13" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="193"/>
+      <c r="F13" s="195"/>
       <c r="G13" s="220"/>
       <c r="H13" s="221"/>
       <c r="I13" s="74" t="s">
@@ -17447,45 +17447,45 @@
       <c r="A14" s="77">
         <v>6</v>
       </c>
-      <c r="B14" s="203"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="204"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
       <c r="E14" s="77"/>
-      <c r="F14" s="193"/>
+      <c r="F14" s="195"/>
       <c r="G14" s="220"/>
       <c r="H14" s="221"/>
       <c r="I14" s="74"/>
     </row>
     <row r="15" spans="1:19" s="80" customFormat="1" ht="15.75">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
     </row>
     <row r="16" spans="1:19" s="80" customFormat="1" ht="16.5">
       <c r="A16" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="188"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="187" t="s">
+      <c r="C16" s="207"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="201" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="189"/>
-      <c r="G16" s="187" t="s">
+      <c r="F16" s="202"/>
+      <c r="G16" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="189"/>
+      <c r="H16" s="202"/>
       <c r="I16" s="75" t="s">
         <v>94</v>
       </c>
@@ -17494,19 +17494,19 @@
       <c r="A17" s="77">
         <v>1</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="96" t="s">
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="197"/>
-      <c r="G17" s="206" t="s">
+      <c r="F17" s="199"/>
+      <c r="G17" s="203" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="197"/>
+      <c r="H17" s="199"/>
       <c r="I17" s="74" t="s">
         <v>90</v>
       </c>
@@ -17515,153 +17515,192 @@
       <c r="A18" s="77">
         <v>2</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="197"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="199"/>
       <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:9" s="80" customFormat="1" ht="16.5">
       <c r="A19" s="77">
         <v>3</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="197"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="199"/>
       <c r="I19" s="74"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="185" t="s">
+      <c r="A20" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="186"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
     </row>
     <row r="21" spans="1:9" ht="246.75" customHeight="1">
       <c r="A21" s="77">
         <v>1</v>
       </c>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="96" t="s">
+      <c r="C21" s="209"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="191">
+      <c r="A22" s="209">
         <v>2</v>
       </c>
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="185" t="s">
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="187" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A23" s="191"/>
-      <c r="B23" s="185" t="s">
+      <c r="A23" s="209"/>
+      <c r="B23" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="79" t="s">
         <v>84</v>
       </c>
       <c r="F23" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="207" t="s">
+      <c r="G23" s="204" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="208"/>
-      <c r="I23" s="209"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="206"/>
     </row>
     <row r="24" spans="1:9" ht="16.5">
-      <c r="A24" s="191"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
+      <c r="A24" s="209"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
       <c r="E24" s="77"/>
       <c r="F24" s="73"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="199"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="186"/>
     </row>
     <row r="25" spans="1:9" ht="16.5">
-      <c r="A25" s="191"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
+      <c r="A25" s="209"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="77"/>
       <c r="F25" s="78"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="199"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="186"/>
     </row>
     <row r="26" spans="1:9" ht="16.5">
-      <c r="A26" s="191"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
+      <c r="A26" s="209"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="212"/>
       <c r="E26" s="77"/>
       <c r="F26" s="78"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="199"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="186"/>
     </row>
     <row r="27" spans="1:9" ht="16.5">
-      <c r="A27" s="191"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="201"/>
+      <c r="A27" s="209"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
       <c r="E27" s="77"/>
       <c r="F27" s="78"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="199"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="186"/>
     </row>
     <row r="28" spans="1:9" ht="16.5">
-      <c r="A28" s="191"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
+      <c r="A28" s="209"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
       <c r="E28" s="77" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="77"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="199"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:I22"/>
@@ -17677,45 +17716,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -58,117 +58,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>林傳勝 a8910001</author>
-  </authors>
-  <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>林傳勝</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> a8910001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve">標題欄 是要填什麼??
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>林傳勝</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> a8910001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>格式請改為</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">yyyy/mm/dd
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="208">
   <si>
@@ -610,79 +499,79 @@
   </si>
   <si>
     <t>emp_id</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>emp_name</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>arrive_date</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>leave_date</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>emp_type</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>org_id</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>search_org_id</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>suda_work_id</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>suda_work_name</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>position_id</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>position_name</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>emp_state</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(20)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>varhchar(1)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(50)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
@@ -694,35 +583,35 @@
   </si>
   <si>
     <t>到職日期</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>離職日期</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>人員類型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>可查詢範圍組織代號</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>權限職稱名稱</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>速達職稱代號</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>速達職稱名稱</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>員工狀態</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>0:失效，1:生效中，2:未來生效</t>
@@ -752,11 +641,11 @@
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>所屬單位代號</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>所屬單位代號</t>
@@ -764,7 +653,7 @@
   </si>
   <si>
     <t>權限職稱代號</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>權限職稱代號</t>
@@ -900,7 +789,7 @@
   </si>
   <si>
     <t>員工編號</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>員工姓名</t>
@@ -1140,7 +1029,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1311,34 +1200,6 @@
       <sz val="12"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="細明體"/>
-      <family val="3"/>
       <charset val="136"/>
     </font>
     <font>
@@ -6821,7 +6682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -7376,7 +7237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7611,7 +7472,6 @@
     <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7619,8 +7479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8004,7 +7864,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>

--- a/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -1735,6 +1735,51 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1747,24 +1792,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1774,12 +1801,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1790,35 +1811,173 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1831,15 +1990,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1865,181 +2015,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3093,13 +3093,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>171449</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3144,13 +3144,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>63</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>74</xdr:row>
+          <xdr:row>79</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6682,8 +6682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6900,7 +6900,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="127" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="40"/>
@@ -6927,7 +6927,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="128"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -6945,7 +6945,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="128"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -7477,10 +7477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7495,15 +7495,15 @@
       <c r="A1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="91" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="77"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="77"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7520,255 +7520,248 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="99"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="102"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="80" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="87"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="84" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="87"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="84" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="96" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="82"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="87"/>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="77"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="96" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="99"/>
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="78" customHeight="1">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="101"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="85"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="86" t="s">
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="77"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="87"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="88"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="96"/>
+      <c r="L68" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A68:L68"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A16:L16"/>
@@ -7780,6 +7773,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7806,8 +7806,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7825,13 +7825,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>79</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
@@ -7895,7 +7895,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="127" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="53"/>
@@ -7916,7 +7916,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -7929,7 +7929,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -7944,152 +7944,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="139"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="136"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="142"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="136"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="139"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -8098,70 +8098,70 @@
       <c r="B16" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="128"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="153"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="129"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="131"/>
+      <c r="A18" s="154"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="156"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="148"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="122"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -8170,16 +8170,16 @@
       <c r="B21" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
@@ -8188,16 +8188,16 @@
       <c r="B22" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="163"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
@@ -8206,14 +8206,14 @@
       <c r="B23" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="166"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
       <c r="A24" s="58">
@@ -8222,14 +8222,14 @@
       <c r="B24" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="166"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
       <c r="A25" s="58">
@@ -8238,52 +8238,52 @@
       <c r="B25" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="119"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="169"/>
     </row>
     <row r="26" spans="1:12" s="55" customFormat="1">
-      <c r="A26" s="108"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="110"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="107"/>
     </row>
     <row r="27" spans="1:12" s="55" customFormat="1">
-      <c r="A27" s="108"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="110"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="107"/>
     </row>
     <row r="28" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="105"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="158"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="59" t="s">
@@ -8298,14 +8298,14 @@
       <c r="D29" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="106" t="s">
+      <c r="E29" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
@@ -8314,180 +8314,180 @@
       <c r="B30" s="62"/>
       <c r="C30" s="63"/>
       <c r="D30" s="64"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1">
       <c r="A31" s="65"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="110"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="107"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1">
-      <c r="A32" s="135" t="s">
+      <c r="A32" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="137"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="131"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="153" t="s">
+      <c r="A33" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1">
-      <c r="A34" s="156"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="158"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
     </row>
     <row r="35" spans="1:10" s="57" customFormat="1">
-      <c r="A35" s="156"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="117"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1">
-      <c r="A36" s="159"/>
-      <c r="B36" s="160"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="161"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="120"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="167" t="s">
+      <c r="A37" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="168"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="169"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="125"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="166"/>
-      <c r="D38" s="149" t="s">
+      <c r="C38" s="122"/>
+      <c r="D38" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="85"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="77"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="162"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="164"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="110"/>
     </row>
     <row r="40" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="66"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="151"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="105"/>
     </row>
     <row r="41" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="66"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="151"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="105"/>
     </row>
     <row r="42" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="162"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="164"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="110"/>
     </row>
     <row r="43" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="151"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="105"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="67" t="s">
@@ -8510,14 +8510,14 @@
       <c r="B45" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="108"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="85"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="77"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="66">
@@ -8526,27 +8526,27 @@
       <c r="B46" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="A33:J36"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="K1:K3"/>
@@ -8563,16 +8563,16 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="D38:J38"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="A33:J36"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8625,7 +8625,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="127" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="40"/>
@@ -8652,7 +8652,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="128"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -8670,7 +8670,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="128"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9189,7 +9189,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="127" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="53"/>
@@ -9210,7 +9210,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -9223,7 +9223,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -9238,152 +9238,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="139"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="136"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="142"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="136"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="139"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="145" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -9392,70 +9392,70 @@
       <c r="B16" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="107"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="175"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="177"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="175"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="148"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36" customHeight="1">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="145" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="122"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -9464,16 +9464,16 @@
       <c r="B21" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
@@ -9482,16 +9482,16 @@
       <c r="B22" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="163"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
@@ -9500,40 +9500,40 @@
       <c r="B23" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="166"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="175"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
+      <c r="A24" s="173"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="177"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="148"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="143"/>
     </row>
     <row r="26" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="59" t="s">
@@ -9548,14 +9548,14 @@
       <c r="D26" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="106" t="s">
+      <c r="E26" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
     </row>
@@ -9566,146 +9566,146 @@
       <c r="B27" s="62"/>
       <c r="C27" s="63"/>
       <c r="D27" s="64"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="135" t="s">
+      <c r="A28" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="136"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="137"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="131"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
     </row>
     <row r="29" spans="1:12" s="55" customFormat="1">
-      <c r="A29" s="153" t="s">
+      <c r="A29" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="114"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A30" s="159"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="161"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="120"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="167" t="s">
+      <c r="A31" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="169"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="125"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="149" t="s">
+      <c r="C32" s="122"/>
+      <c r="D32" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="77"/>
     </row>
     <row r="33" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="162"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="179"/>
     </row>
     <row r="34" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="85"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="85"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="77"/>
     </row>
     <row r="36" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="162"/>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
     </row>
     <row r="37" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="85"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="77"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="67" t="s">
@@ -9728,14 +9728,14 @@
       <c r="B39" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="108"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="85"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="77"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="66">
@@ -9744,29 +9744,24 @@
       <c r="B40" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:J37"/>
@@ -9783,13 +9778,18 @@
     <mergeCell ref="A29:J30"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9842,7 +9842,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="127" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="40"/>
@@ -9869,7 +9869,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="128"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9887,7 +9887,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="128"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -10380,7 +10380,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="127" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="53"/>
@@ -10401,7 +10401,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -10414,7 +10414,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -10429,152 +10429,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="139"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="136"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="142"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="136"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="139"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="145" t="s">
         <v>183</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -10583,70 +10583,70 @@
       <c r="B16" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="107"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="108"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="110"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="107"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="148"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="145" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="122"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -10655,16 +10655,16 @@
       <c r="B21" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
@@ -10673,16 +10673,16 @@
       <c r="B22" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="163"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
@@ -10691,68 +10691,68 @@
       <c r="B23" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="166"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="175"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
+      <c r="A24" s="173"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="177"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="122"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
     </row>
     <row r="26" spans="1:12" s="55" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="95"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="101"/>
     </row>
     <row r="27" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="148"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="143"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
     </row>
@@ -10769,184 +10769,184 @@
       <c r="D28" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="106" t="s">
+      <c r="E28" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="62"/>
       <c r="B29" s="62"/>
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1">
-      <c r="A30" s="135" t="s">
+      <c r="A30" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="137"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="131"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A31" s="153" t="s">
+      <c r="A31" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="114"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A32" s="159"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="161"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1">
-      <c r="A33" s="149"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="105"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="108"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="107"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="167" t="s">
+      <c r="A35" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="168"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="168"/>
-      <c r="J35" s="169"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="125"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="166"/>
-      <c r="D36" s="149" t="s">
+      <c r="C36" s="122"/>
+      <c r="D36" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="85"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="77"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="162"/>
-      <c r="B37" s="173"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="174"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="178"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="178"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="179"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="85"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="77"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="66"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="85"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="77"/>
     </row>
     <row r="40" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="162"/>
-      <c r="B40" s="173"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="178"/>
+      <c r="C40" s="178"/>
+      <c r="D40" s="178"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="179"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="66"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="85"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="77"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="67" t="s">
@@ -10969,14 +10969,14 @@
       <c r="B43" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="108"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="85"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="77"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="66">
@@ -10985,17 +10985,40 @@
       <c r="B44" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A40:J40"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="C22:J23"/>
     <mergeCell ref="A31:J32"/>
@@ -11012,29 +11035,6 @@
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="C21:J21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -424,10 +424,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>角色維護</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>系統管理模組</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1020,6 +1016,10 @@
   <si>
     <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人員組織主檔資料查詢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3093,13 +3093,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9524</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>171449</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6697,7 +6697,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -6733,80 +6733,80 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>203</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>204</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="74"/>
       <c r="B6" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="74"/>
       <c r="B8" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="74"/>
       <c r="B10" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -7117,25 +7117,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>171</v>
-      </c>
       <c r="G12" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -7143,25 +7143,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>174</v>
-      </c>
       <c r="G13" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -7169,25 +7169,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -7479,8 +7479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:L16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="88" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="B6" s="89"/>
       <c r="C6" s="89"/>
@@ -7571,14 +7571,14 @@
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="76"/>
       <c r="H8" s="76"/>
@@ -7607,14 +7607,14 @@
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A10" s="83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
       <c r="F10" s="76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="76"/>
       <c r="H10" s="76"/>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
       <c r="A12" s="83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="16.5">
       <c r="A14" s="83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="78" customHeight="1">
       <c r="A16" s="100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="140" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
       <c r="A15" s="145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="146"/>
       <c r="C15" s="146"/>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36.75" customHeight="1">
       <c r="A20" s="145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="146"/>
       <c r="C20" s="146"/>
@@ -8186,10 +8186,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" s="161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" s="162"/>
       <c r="E22" s="162"/>
@@ -8204,7 +8204,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="164"/>
       <c r="D23" s="165"/>
@@ -8220,7 +8220,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="164"/>
       <c r="D24" s="165"/>
@@ -8236,7 +8236,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="167"/>
       <c r="D25" s="168"/>
@@ -8335,7 +8335,7 @@
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1">
       <c r="A32" s="129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="130"/>
       <c r="C32" s="130"/>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="113"/>
       <c r="C33" s="113"/>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="170" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="171"/>
       <c r="C10" s="171"/>
@@ -8842,22 +8842,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -8866,22 +8866,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -8890,25 +8890,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
@@ -8916,25 +8916,25 @@
         <v>4</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -8942,25 +8942,25 @@
         <v>5</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8968,22 +8968,22 @@
         <v>6</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J17" s="49"/>
     </row>
@@ -8992,22 +8992,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -9016,22 +9016,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -9040,22 +9040,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J20" s="49"/>
     </row>
@@ -9064,22 +9064,22 @@
         <v>10</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J21" s="49"/>
     </row>
@@ -9088,22 +9088,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
       <c r="E22" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J22" s="52"/>
     </row>
@@ -9112,25 +9112,25 @@
         <v>12</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
       <c r="A15" s="145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="146"/>
       <c r="C15" s="146"/>
@@ -9405,7 +9405,7 @@
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="111"/>
       <c r="C17" s="111"/>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36" customHeight="1">
       <c r="A20" s="145" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="146"/>
       <c r="C20" s="146"/>
@@ -9480,10 +9480,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="162"/>
       <c r="E22" s="162"/>
@@ -9498,7 +9498,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="164"/>
       <c r="D23" s="165"/>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="28" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="130"/>
       <c r="C28" s="130"/>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="29" spans="1:12" s="55" customFormat="1">
       <c r="A29" s="112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="113"/>
       <c r="C29" s="113"/>
@@ -10059,22 +10059,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
       <c r="E12" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="50" t="s">
-        <v>134</v>
-      </c>
       <c r="G12" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J12" s="50"/>
     </row>
@@ -10083,22 +10083,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
       <c r="E13" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J13" s="50"/>
     </row>
@@ -10107,18 +10107,18 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="46"/>
       <c r="E14" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
@@ -10131,18 +10131,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="46"/>
       <c r="E15" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
@@ -10155,18 +10155,18 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="46"/>
       <c r="E16" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
@@ -10179,25 +10179,25 @@
         <v>6</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="46"/>
       <c r="E17" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="44" t="s">
         <v>58</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10205,25 +10205,25 @@
         <v>7</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="46"/>
       <c r="E18" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
         <v>58</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10231,25 +10231,25 @@
         <v>8</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="46"/>
       <c r="E19" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
         <v>58</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10257,15 +10257,15 @@
         <v>9</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="46"/>
       <c r="E20" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="46"/>
@@ -10279,25 +10279,25 @@
         <v>10</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
         <v>58</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -10305,18 +10305,18 @@
         <v>11</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="46"/>
       <c r="E22" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="44" t="s">
@@ -10564,7 +10564,7 @@
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
       <c r="A15" s="145" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="146"/>
       <c r="C15" s="146"/>
@@ -10596,7 +10596,7 @@
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="111"/>
       <c r="C17" s="111"/>
@@ -10636,7 +10636,7 @@
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A20" s="145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="146"/>
       <c r="C20" s="146"/>
@@ -10671,10 +10671,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="162"/>
       <c r="E22" s="162"/>
@@ -10689,7 +10689,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="164"/>
       <c r="D23" s="165"/>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="25.5" customHeight="1">
       <c r="A31" s="112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="113"/>
       <c r="C31" s="113"/>

--- a/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="209">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -189,29 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html型態及長度</t>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨブ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>html代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>panEO0107MM1_Query</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -285,10 +262,6 @@
   </si>
   <si>
     <t>Global 參數</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -361,19 +334,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>可輸入長度</t>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨブチョウド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>APF0101MA1_Edit</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1020,6 +980,24 @@
   <si>
     <t>人員組織主檔資料查詢</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -1735,13 +1713,70 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1750,27 +1785,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1780,41 +1794,143 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1825,10 +1941,34 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1840,36 +1980,6 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1883,143 +1993,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2034,12 +2018,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3744,7 +3722,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="11925300" cy="523875"/>
+          <a:ext cx="12439650" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -4755,7 +4733,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12163425" cy="609600"/>
+          <a:ext cx="12553950" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -5821,7 +5799,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="11887200" cy="609600"/>
+          <a:ext cx="12268200" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -6697,7 +6675,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="75" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -6705,108 +6683,108 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="74" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="74"/>
       <c r="B6" s="35" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="74" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="74"/>
       <c r="B8" s="35" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="74"/>
       <c r="B10" s="35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -6883,7 +6861,7 @@
     <col min="6" max="6" width="14.375" style="42" customWidth="1"/>
     <col min="7" max="7" width="13.625" style="42" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="42" customWidth="1"/>
     <col min="10" max="10" width="34.75" style="42" customWidth="1"/>
     <col min="11" max="11" width="10" style="42" customWidth="1"/>
     <col min="12" max="16384" width="9" style="42"/>
@@ -6900,8 +6878,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="127" t="s">
-        <v>56</v>
+      <c r="K1" s="133" t="s">
+        <v>53</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -6927,7 +6905,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="128"/>
+      <c r="K2" s="134"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -6945,7 +6923,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="128"/>
+      <c r="K3" s="134"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -6990,7 +6968,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="170" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="171"/>
       <c r="C6" s="171"/>
@@ -7019,7 +6997,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>22</v>
@@ -7031,10 +7009,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -7068,7 +7046,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="170" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="171"/>
       <c r="C10" s="171"/>
@@ -7088,10 +7066,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>22</v>
@@ -7103,10 +7081,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -7117,25 +7095,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -7143,25 +7121,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -7169,25 +7147,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="G14" s="46" t="s">
         <v>176</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>180</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -7343,10 +7321,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" s="22">
         <v>41561</v>
@@ -7479,7 +7457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
@@ -7493,17 +7471,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="91" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="92"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="92"/>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7520,243 +7498,250 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="99"/>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="100" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-    </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
-    </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="81" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="82"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="85"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="85" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="83" t="s">
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
+    </row>
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
+      <c r="A12" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
+    </row>
+    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
+    </row>
+    <row r="14" spans="1:13" s="24" customFormat="1" ht="16.5">
+      <c r="A14" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
+    </row>
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="92"/>
+    </row>
+    <row r="16" spans="1:13" s="19" customFormat="1" ht="78" customHeight="1">
+      <c r="A16" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
-    </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="87"/>
-    </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
-    </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="87"/>
-    </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A14" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="99"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="78" customHeight="1">
-      <c r="A16" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="95"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="77"/>
+      <c r="A17" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="96"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="96"/>
-      <c r="J68" s="96"/>
-      <c r="K68" s="96"/>
-      <c r="L68" s="97"/>
+      <c r="A68" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="87"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="87"/>
+      <c r="J68" s="87"/>
+      <c r="K68" s="87"/>
+      <c r="L68" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -7773,13 +7758,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7895,8 +7873,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="127" t="s">
-        <v>56</v>
+      <c r="K1" s="133" t="s">
+        <v>53</v>
       </c>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
@@ -7916,7 +7894,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="128"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -7929,7 +7907,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="128"/>
+      <c r="K3" s="134"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -7944,368 +7922,368 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="A5" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="133"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="133"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="136"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="142"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="137"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="139"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="145"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
+      <c r="A11" s="146" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="145" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
+      <c r="A15" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="122"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="148" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
+        <v>58</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="153"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="154"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="156"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="131"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="141" t="s">
+      <c r="A19" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="148"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="145" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
+      <c r="A20" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="122"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="148" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
+        <v>58</v>
+      </c>
+      <c r="C21" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="161" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="163"/>
+        <v>156</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="166"/>
+        <v>157</v>
+      </c>
+      <c r="C23" s="114"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
       <c r="A24" s="58">
         <v>3</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="166"/>
+        <v>119</v>
+      </c>
+      <c r="C24" s="114"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
       <c r="A25" s="58">
         <v>4</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="167"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="169"/>
+        <v>121</v>
+      </c>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="55" customFormat="1">
-      <c r="A26" s="106"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="107"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="110"/>
     </row>
     <row r="27" spans="1:12" s="55" customFormat="1">
-      <c r="A27" s="106"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="107"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="110"/>
     </row>
     <row r="28" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="158"/>
+      <c r="A28" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="105"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="D29" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="E29" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="159" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
@@ -8314,180 +8292,180 @@
       <c r="B30" s="62"/>
       <c r="C30" s="63"/>
       <c r="D30" s="64"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1">
       <c r="A31" s="65"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="107"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="110"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1">
-      <c r="A32" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="131"/>
+      <c r="A32" s="135" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="137"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
+      <c r="A33" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="117"/>
+      <c r="A34" s="156"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="158"/>
     </row>
     <row r="35" spans="1:10" s="57" customFormat="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1">
-      <c r="A36" s="118"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="120"/>
+      <c r="A36" s="159"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="161"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="123" t="s">
+      <c r="A37" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="125"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="168"/>
+      <c r="H37" s="168"/>
+      <c r="I37" s="168"/>
+      <c r="J37" s="169"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="121" t="s">
+      <c r="B38" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="103" t="s">
+      <c r="C38" s="166"/>
+      <c r="D38" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="77"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="108"/>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="110"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="164"/>
     </row>
     <row r="40" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="66"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="105"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="151"/>
     </row>
     <row r="41" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="66"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="105"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="151"/>
     </row>
     <row r="42" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="108"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="110"/>
+      <c r="A42" s="162"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="164"/>
     </row>
     <row r="43" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="105"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="151"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="67" t="s">
@@ -8510,14 +8488,14 @@
       <c r="B45" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="77"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="85"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="66">
@@ -8526,27 +8504,27 @@
       <c r="B46" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="126"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="A33:J36"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A37:J37"/>
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="K1:K3"/>
@@ -8563,16 +8541,16 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="A33:J36"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C22:J25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8594,8 +8572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8603,12 +8581,12 @@
     <col min="1" max="1" width="4.25" style="42" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="42" customWidth="1"/>
     <col min="3" max="3" width="21" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="42" customWidth="1"/>
     <col min="5" max="5" width="17.625" style="42" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="42" customWidth="1"/>
     <col min="7" max="7" width="13" style="42" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="42" customWidth="1"/>
     <col min="10" max="10" width="34.125" style="42" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="42" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="42"/>
@@ -8625,8 +8603,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="127" t="s">
-        <v>56</v>
+      <c r="K1" s="133" t="s">
+        <v>53</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -8652,7 +8630,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="128"/>
+      <c r="K2" s="134"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -8670,7 +8648,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="128"/>
+      <c r="K3" s="134"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -8715,7 +8693,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="170" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="171"/>
       <c r="C6" s="171"/>
@@ -8744,7 +8722,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>22</v>
@@ -8756,10 +8734,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -8793,7 +8771,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="170" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="171"/>
       <c r="C10" s="171"/>
@@ -8810,13 +8788,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>22</v>
@@ -8828,10 +8806,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -8842,22 +8820,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -8866,22 +8844,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -8890,25 +8868,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
@@ -8916,25 +8894,25 @@
         <v>4</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -8942,25 +8920,25 @@
         <v>5</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8968,22 +8946,22 @@
         <v>6</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J17" s="49"/>
     </row>
@@ -8992,22 +8970,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -9016,22 +8994,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -9040,22 +9018,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J20" s="49"/>
     </row>
@@ -9064,22 +9042,22 @@
         <v>10</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J21" s="49"/>
     </row>
@@ -9088,22 +9066,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
       <c r="E22" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J22" s="52"/>
     </row>
@@ -9112,25 +9090,25 @@
         <v>12</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F23" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="46" t="s">
         <v>97</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>101</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -9189,8 +9167,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="127" t="s">
-        <v>56</v>
+      <c r="K1" s="133" t="s">
+        <v>53</v>
       </c>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
@@ -9210,7 +9188,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="128"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -9223,7 +9201,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="128"/>
+      <c r="K3" s="134"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -9238,324 +9216,324 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="A5" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="133"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="133"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="136"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="142"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="137"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="139"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="145"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
+      <c r="A11" s="146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="145" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
+      <c r="A15" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="122"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="148" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
+        <v>58</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="107"/>
+      <c r="A17" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="110"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="173"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
+      <c r="A18" s="175"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="177"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="141" t="s">
+      <c r="A19" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="148"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36" customHeight="1">
-      <c r="A20" s="145" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
+      <c r="A20" s="120" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="122"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="148" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
+        <v>58</v>
+      </c>
+      <c r="C21" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="161" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="163"/>
+        <v>160</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="166"/>
+        <v>161</v>
+      </c>
+      <c r="C23" s="114"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="173"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="177"/>
+      <c r="A24" s="175"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="179"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
+      <c r="A25" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="148"/>
     </row>
     <row r="26" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="E26" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="159" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
     </row>
@@ -9566,146 +9544,146 @@
       <c r="B27" s="62"/>
       <c r="C27" s="63"/>
       <c r="D27" s="64"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
     </row>
     <row r="28" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="129" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="131"/>
+      <c r="A28" s="135" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="137"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
     </row>
     <row r="29" spans="1:12" s="55" customFormat="1">
-      <c r="A29" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="114"/>
+      <c r="A29" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="155"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A30" s="118"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="120"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="161"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="123" t="s">
+      <c r="A31" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="125"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="169"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="103" t="s">
+      <c r="C32" s="166"/>
+      <c r="D32" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="77"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
     </row>
     <row r="33" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="108"/>
-      <c r="B33" s="178"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="179"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
     </row>
     <row r="34" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="77"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="85"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="77"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="85"/>
     </row>
     <row r="36" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="108"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="173"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="174"/>
     </row>
     <row r="37" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="77"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="85"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="67" t="s">
@@ -9728,14 +9706,14 @@
       <c r="B39" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="77"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="85"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="66">
@@ -9744,24 +9722,29 @@
       <c r="B40" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:J37"/>
@@ -9778,18 +9761,13 @@
     <mergeCell ref="A29:J30"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9825,7 +9803,7 @@
     <col min="6" max="6" width="14.375" style="42" customWidth="1"/>
     <col min="7" max="7" width="13" style="42" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="42" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="42" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="42" customWidth="1"/>
     <col min="12" max="16384" width="9" style="42"/>
@@ -9842,8 +9820,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="127" t="s">
-        <v>56</v>
+      <c r="K1" s="133" t="s">
+        <v>53</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -9869,7 +9847,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="128"/>
+      <c r="K2" s="134"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9887,7 +9865,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="128"/>
+      <c r="K3" s="134"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9932,7 +9910,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="170" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="171"/>
       <c r="C6" s="171"/>
@@ -9961,7 +9939,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>22</v>
@@ -9973,10 +9951,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -10010,7 +9988,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="170" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="171"/>
       <c r="C10" s="171"/>
@@ -10030,10 +10008,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>22</v>
@@ -10045,10 +10023,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -10059,22 +10037,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
       <c r="E12" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J12" s="50"/>
     </row>
@@ -10083,22 +10061,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
       <c r="E13" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J13" s="50"/>
     </row>
@@ -10107,22 +10085,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="46"/>
       <c r="E14" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J14" s="50"/>
     </row>
@@ -10131,22 +10109,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="46"/>
       <c r="E15" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>136</v>
-      </c>
       <c r="G15" s="50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J15" s="50"/>
     </row>
@@ -10155,22 +10133,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="46"/>
       <c r="E16" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J16" s="50"/>
     </row>
@@ -10179,25 +10157,25 @@
         <v>6</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="46"/>
       <c r="E17" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10205,25 +10183,25 @@
         <v>7</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="46"/>
       <c r="E18" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10231,25 +10209,25 @@
         <v>8</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="46"/>
       <c r="E19" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10257,20 +10235,20 @@
         <v>9</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="46"/>
       <c r="E20" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J20" s="50"/>
     </row>
@@ -10279,25 +10257,25 @@
         <v>10</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -10305,22 +10283,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="46"/>
       <c r="E22" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J22" s="50"/>
     </row>
@@ -10380,8 +10358,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="127" t="s">
-        <v>56</v>
+      <c r="K1" s="133" t="s">
+        <v>53</v>
       </c>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
@@ -10401,7 +10379,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="128"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -10414,7 +10392,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="128"/>
+      <c r="K3" s="134"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -10429,330 +10407,330 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="A5" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="133"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="133"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="136"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="142"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="137"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="139"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="145"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="140" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
+      <c r="A11" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="145" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
+      <c r="A15" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="122"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="148" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
+        <v>58</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="107"/>
+      <c r="A17" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="110"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="106"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="107"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="141" t="s">
+      <c r="A19" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="148"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
-      <c r="A20" s="145" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
+      <c r="A20" s="120" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="122"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="148" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
+        <v>58</v>
+      </c>
+      <c r="C21" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="161" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="163"/>
+        <v>182</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="166"/>
+        <v>184</v>
+      </c>
+      <c r="C23" s="114"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="173"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="177"/>
+      <c r="A24" s="175"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="179"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
-      <c r="A25" s="145" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+      <c r="A25" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="122"/>
     </row>
     <row r="26" spans="1:12" s="55" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="101"/>
+      <c r="A26" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
     </row>
     <row r="27" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="143"/>
+      <c r="A27" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="148"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
     </row>
@@ -10761,192 +10739,192 @@
         <v>6</v>
       </c>
       <c r="B28" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="E28" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="159" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="62"/>
       <c r="B29" s="62"/>
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1">
-      <c r="A30" s="129" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="131"/>
+      <c r="A30" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="137"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A31" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="114"/>
+      <c r="A31" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="155"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A32" s="118"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="120"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="161"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1">
-      <c r="A33" s="103"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="105"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="106"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="107"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="123" t="s">
+      <c r="A35" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="125"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="168"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="169"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="103" t="s">
+      <c r="C36" s="166"/>
+      <c r="D36" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="77"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="85"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="108"/>
-      <c r="B37" s="178"/>
-      <c r="C37" s="178"/>
-      <c r="D37" s="178"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="179"/>
+      <c r="A37" s="162"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="174"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="77"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="66"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="77"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="85"/>
     </row>
     <row r="40" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="108"/>
-      <c r="B40" s="178"/>
-      <c r="C40" s="178"/>
-      <c r="D40" s="178"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="179"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="174"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="66"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="77"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="85"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="67" t="s">
@@ -10969,14 +10947,14 @@
       <c r="B43" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="85"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="66">
@@ -10985,17 +10963,40 @@
       <c r="B44" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="C22:J23"/>
+    <mergeCell ref="A31:J32"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A40:J40"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:J41"/>
@@ -11012,29 +11013,6 @@
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="C22:J23"/>
-    <mergeCell ref="A31:J32"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A20:J20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="207">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -229,10 +229,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -409,12 +405,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Framework底層功能
-1.提供人員 / 組織資料查詢API
-2.連結Oracle DB進行資料存取</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">RA006_APF0505_人員組織主檔資料查詢 </t>
     </r>
@@ -455,79 +445,79 @@
   </si>
   <si>
     <t>emp_id</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive_date</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_date</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_type</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>emp_name</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrive_date</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>leave_date</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_type</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>org_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>search_org_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>suda_work_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>suda_work_name</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>position_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>position_name</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>emp_state</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(20)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>varhchar(1)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(50)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
@@ -539,35 +529,35 @@
   </si>
   <si>
     <t>到職日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>離職日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>人員類型</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>可查詢範圍組織代號</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱名稱</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>權限職稱名稱</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>速達職稱代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>速達職稱名稱</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>員工狀態</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>0:失效，1:生效中，2:未來生效</t>
@@ -597,11 +587,11 @@
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>所屬單位代號</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>所屬單位代號</t>
@@ -609,7 +599,7 @@
   </si>
   <si>
     <t>權限職稱代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>權限職稱代號</t>
@@ -745,7 +735,7 @@
   </si>
   <si>
     <t>員工編號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>員工姓名</t>
@@ -1007,7 +997,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1160,11 +1150,6 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1508,7 +1493,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1655,7 +1640,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1713,6 +1698,51 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1725,24 +1755,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1752,51 +1764,177 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1809,15 +1947,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1843,181 +1972,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3070,13 +3049,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3122,13 +3101,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>66</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>79</xdr:row>
+          <xdr:row>77</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6675,7 +6654,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -6683,108 +6662,108 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="74"/>
       <c r="B6" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="74"/>
       <c r="B8" s="35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="74"/>
       <c r="B10" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -6878,8 +6857,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="133" t="s">
-        <v>53</v>
+      <c r="K1" s="125" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -6905,7 +6884,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="126"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -6923,7 +6902,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="126"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -6967,18 +6946,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="170" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
+      <c r="A6" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -6997,7 +6976,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>22</v>
@@ -7009,10 +6988,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -7045,18 +7024,18 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
@@ -7066,10 +7045,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>22</v>
@@ -7081,10 +7060,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -7095,25 +7074,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -7121,25 +7100,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -7147,25 +7126,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -7321,10 +7300,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>43</v>
       </c>
       <c r="D6" s="22">
         <v>41561</v>
@@ -7455,10 +7434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7471,17 +7450,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="76" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="M1" s="91" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="77"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="77"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7498,258 +7477,217 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="99"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="102"/>
+      <c r="A6" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="80" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="87"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="84" t="s">
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="87"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="84" t="s">
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
+    </row>
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="87"/>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
+      <c r="A12" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="77"/>
+    </row>
+    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
+    </row>
+    <row r="14" spans="1:13" s="24" customFormat="1" ht="16.5">
+      <c r="A14" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
-    </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="82"/>
-    </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
-    </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
-    </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A14" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="78" customHeight="1">
-      <c r="A16" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="83" t="s">
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="77"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="85"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="87"/>
-      <c r="J68" s="87"/>
-      <c r="K68" s="87"/>
-      <c r="L68" s="88"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
+  <mergeCells count="21">
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A66:L66"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -7758,6 +7696,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7778,13 +7723,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -7803,13 +7748,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>79</xdr:row>
+                <xdr:row>77</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
@@ -7873,8 +7818,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="133" t="s">
-        <v>53</v>
+      <c r="K1" s="125" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
@@ -7894,7 +7839,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -7907,7 +7852,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -7922,311 +7867,311 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="138" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
+      <c r="A5" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="139"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="142"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="146" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="A15" s="143" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
+        <v>57</v>
+      </c>
+      <c r="C16" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="128"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="129"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="131"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="154"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="148"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="120" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="122"/>
+      <c r="A20" s="143" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
+        <v>154</v>
+      </c>
+      <c r="C22" s="159" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="161"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
+        <v>155</v>
+      </c>
+      <c r="C23" s="162"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
       <c r="A24" s="58">
         <v>3</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
+        <v>117</v>
+      </c>
+      <c r="C24" s="162"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
       <c r="A25" s="58">
         <v>4</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="119"/>
+        <v>119</v>
+      </c>
+      <c r="C25" s="165"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="167"/>
     </row>
     <row r="26" spans="1:12" s="55" customFormat="1">
-      <c r="A26" s="108"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="109"/>
       <c r="C26" s="109"/>
       <c r="D26" s="109"/>
@@ -8235,10 +8180,10 @@
       <c r="G26" s="109"/>
       <c r="H26" s="109"/>
       <c r="I26" s="109"/>
-      <c r="J26" s="110"/>
+      <c r="J26" s="105"/>
     </row>
     <row r="27" spans="1:12" s="55" customFormat="1">
-      <c r="A27" s="108"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="109"/>
       <c r="C27" s="109"/>
       <c r="D27" s="109"/>
@@ -8247,43 +8192,43 @@
       <c r="G27" s="109"/>
       <c r="H27" s="109"/>
       <c r="I27" s="109"/>
-      <c r="J27" s="110"/>
+      <c r="J27" s="105"/>
     </row>
     <row r="28" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="105"/>
+      <c r="A28" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="156"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="C29" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="D29" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="E29" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
@@ -8292,12 +8237,12 @@
       <c r="B30" s="62"/>
       <c r="C30" s="63"/>
       <c r="D30" s="64"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1">
       <c r="A31" s="65"/>
@@ -8309,163 +8254,163 @@
       <c r="G31" s="109"/>
       <c r="H31" s="109"/>
       <c r="I31" s="109"/>
-      <c r="J31" s="110"/>
+      <c r="J31" s="105"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1">
-      <c r="A32" s="135" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="137"/>
+      <c r="A32" s="127" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="129"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="153" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
+      <c r="A33" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="112"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1">
-      <c r="A34" s="156"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="158"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="115"/>
     </row>
     <row r="35" spans="1:10" s="57" customFormat="1">
-      <c r="A35" s="156"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="115"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1">
-      <c r="A36" s="159"/>
-      <c r="B36" s="160"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="161"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="167" t="s">
+      <c r="A37" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="168"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="169"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="123"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="166"/>
-      <c r="D38" s="149" t="s">
+      <c r="C38" s="120"/>
+      <c r="D38" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="85"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="77"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="162"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="164"/>
+      <c r="A39" s="106"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="108"/>
     </row>
     <row r="40" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="66"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="151"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="103"/>
     </row>
     <row r="41" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="66"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="151"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="162"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="164"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="108"/>
     </row>
     <row r="43" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="151"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="103"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="67" t="s">
@@ -8488,14 +8433,14 @@
       <c r="B45" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="108"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="85"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="77"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="66">
@@ -8504,27 +8449,27 @@
       <c r="B46" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="A33:J36"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="K1:K3"/>
@@ -8541,16 +8486,16 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="D38:J38"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="A33:J36"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8572,7 +8517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -8603,8 +8548,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="133" t="s">
-        <v>53</v>
+      <c r="K1" s="125" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -8630,7 +8575,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="126"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -8648,7 +8593,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="126"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -8692,18 +8637,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="170" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
+      <c r="A6" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -8722,7 +8667,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>22</v>
@@ -8734,10 +8679,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -8770,31 +8715,31 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="170" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
+      <c r="A10" s="168" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>22</v>
@@ -8806,10 +8751,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -8820,22 +8765,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>82</v>
-      </c>
       <c r="G12" s="46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -8844,22 +8789,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -8868,25 +8813,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
@@ -8894,25 +8839,25 @@
         <v>4</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -8920,25 +8865,25 @@
         <v>5</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8946,22 +8891,22 @@
         <v>6</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J17" s="49"/>
     </row>
@@ -8970,22 +8915,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -8994,22 +8939,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -9018,22 +8963,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J20" s="49"/>
     </row>
@@ -9042,22 +8987,22 @@
         <v>10</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J21" s="49"/>
     </row>
@@ -9066,22 +9011,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
       <c r="E22" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J22" s="52"/>
     </row>
@@ -9090,25 +9035,25 @@
         <v>12</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -9167,8 +9112,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="133" t="s">
-        <v>53</v>
+      <c r="K1" s="125" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
@@ -9188,7 +9133,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -9201,7 +9146,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -9216,174 +9161,174 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="138" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
+      <c r="A5" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="139"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="142"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="146" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="120" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="A15" s="143" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
+        <v>57</v>
+      </c>
+      <c r="C16" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="108" t="s">
-        <v>159</v>
+      <c r="A17" s="104" t="s">
+        <v>157</v>
       </c>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -9393,147 +9338,147 @@
       <c r="G17" s="109"/>
       <c r="H17" s="109"/>
       <c r="I17" s="109"/>
-      <c r="J17" s="110"/>
+      <c r="J17" s="105"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="175"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="177"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="173"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="148"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36" customHeight="1">
-      <c r="A20" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="122"/>
+      <c r="A20" s="143" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+        <v>57</v>
+      </c>
+      <c r="C21" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
+        <v>158</v>
+      </c>
+      <c r="C22" s="159" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="161"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
+        <v>159</v>
+      </c>
+      <c r="C23" s="162"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="175"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="148"/>
+      <c r="A25" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
     </row>
     <row r="26" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="D26" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="E26" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
     </row>
@@ -9544,146 +9489,146 @@
       <c r="B27" s="62"/>
       <c r="C27" s="63"/>
       <c r="D27" s="64"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="135" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="136"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="137"/>
+      <c r="A28" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="129"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
     </row>
     <row r="29" spans="1:12" s="55" customFormat="1">
-      <c r="A29" s="153" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155"/>
+      <c r="A29" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="112"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A30" s="159"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="161"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="167" t="s">
+      <c r="A31" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="169"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="123"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="149" t="s">
+      <c r="C32" s="120"/>
+      <c r="D32" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="77"/>
     </row>
     <row r="33" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="162"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="177"/>
     </row>
     <row r="34" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="85"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="85"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="77"/>
     </row>
     <row r="36" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="162"/>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
     </row>
     <row r="37" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="85"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="77"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="67" t="s">
@@ -9706,14 +9651,14 @@
       <c r="B39" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="108"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="85"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="77"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="66">
@@ -9722,29 +9667,24 @@
       <c r="B40" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:J37"/>
@@ -9761,13 +9701,18 @@
     <mergeCell ref="A29:J30"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9820,8 +9765,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="133" t="s">
-        <v>53</v>
+      <c r="K1" s="125" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -9847,7 +9792,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="126"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9865,7 +9810,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="126"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9909,18 +9854,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="170" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
+      <c r="A6" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -9939,7 +9884,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>22</v>
@@ -9951,10 +9896,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -9987,18 +9932,18 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="170" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
+      <c r="A10" s="168" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
@@ -10008,10 +9953,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>22</v>
@@ -10023,10 +9968,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -10037,22 +9982,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
       <c r="E12" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J12" s="50"/>
     </row>
@@ -10061,22 +10006,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
       <c r="E13" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="50" t="s">
-        <v>130</v>
-      </c>
       <c r="G13" s="50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J13" s="50"/>
     </row>
@@ -10085,22 +10030,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="46"/>
       <c r="E14" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="50"/>
     </row>
@@ -10109,22 +10054,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="46"/>
       <c r="E15" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="50"/>
     </row>
@@ -10133,22 +10078,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="46"/>
       <c r="E16" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="50"/>
     </row>
@@ -10157,25 +10102,25 @@
         <v>6</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="46"/>
       <c r="E17" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10183,25 +10128,25 @@
         <v>7</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="46"/>
       <c r="E18" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10209,25 +10154,25 @@
         <v>8</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="46"/>
       <c r="E19" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10235,20 +10180,20 @@
         <v>9</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="46"/>
       <c r="E20" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20" s="50"/>
     </row>
@@ -10257,25 +10202,25 @@
         <v>10</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -10283,22 +10228,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="46"/>
       <c r="E22" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="50"/>
     </row>
@@ -10358,8 +10303,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="133" t="s">
-        <v>53</v>
+      <c r="K1" s="125" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
@@ -10379,7 +10324,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="134"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -10392,7 +10337,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="134"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -10407,174 +10352,174 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="138" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
+      <c r="A5" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="139"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="142"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="120" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="A15" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
+        <v>57</v>
+      </c>
+      <c r="C16" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="108" t="s">
-        <v>159</v>
+      <c r="A17" s="104" t="s">
+        <v>157</v>
       </c>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -10584,10 +10529,10 @@
       <c r="G17" s="109"/>
       <c r="H17" s="109"/>
       <c r="I17" s="109"/>
-      <c r="J17" s="110"/>
+      <c r="J17" s="105"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="108"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="109"/>
       <c r="C18" s="109"/>
       <c r="D18" s="109"/>
@@ -10596,141 +10541,141 @@
       <c r="G18" s="109"/>
       <c r="H18" s="109"/>
       <c r="I18" s="109"/>
-      <c r="J18" s="110"/>
+      <c r="J18" s="105"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="148"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
-      <c r="A20" s="120" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="122"/>
+      <c r="A20" s="143" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+        <v>57</v>
+      </c>
+      <c r="C21" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
+        <v>180</v>
+      </c>
+      <c r="C22" s="159" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="161"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
+        <v>182</v>
+      </c>
+      <c r="C23" s="162"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="175"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="143" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="145"/>
+    </row>
+    <row r="26" spans="1:12" s="55" customFormat="1" ht="27" customHeight="1">
+      <c r="A26" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="122"/>
-    </row>
-    <row r="26" spans="1:12" s="55" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="95"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="148"/>
+      <c r="A27" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
     </row>
@@ -10739,91 +10684,91 @@
         <v>6</v>
       </c>
       <c r="B28" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="D28" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="E28" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="62"/>
       <c r="B29" s="62"/>
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1">
-      <c r="A30" s="135" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="137"/>
+      <c r="A30" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A31" s="153" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
+      <c r="A31" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="112"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A32" s="159"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="161"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1">
-      <c r="A33" s="149"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="103"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="108"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="109"/>
       <c r="C34" s="109"/>
       <c r="D34" s="109"/>
@@ -10832,99 +10777,99 @@
       <c r="G34" s="109"/>
       <c r="H34" s="109"/>
       <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
+      <c r="J34" s="105"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="167" t="s">
+      <c r="A35" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="168"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="168"/>
-      <c r="J35" s="169"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="123"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="166"/>
-      <c r="D36" s="149" t="s">
+      <c r="C36" s="120"/>
+      <c r="D36" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="85"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="77"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="162"/>
-      <c r="B37" s="173"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="174"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="176"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="177"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="85"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="77"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="66"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="85"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="77"/>
     </row>
     <row r="40" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="162"/>
-      <c r="B40" s="173"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="176"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="176"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="176"/>
+      <c r="H40" s="176"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="177"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="66"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="85"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="77"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="67" t="s">
@@ -10947,14 +10892,14 @@
       <c r="B43" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="108"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="85"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="77"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="66">
@@ -10963,17 +10908,40 @@
       <c r="B44" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A40:J40"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="C22:J23"/>
     <mergeCell ref="A31:J32"/>
@@ -10990,29 +10958,6 @@
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="C21:J21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -1698,13 +1698,58 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1713,27 +1758,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1743,35 +1767,143 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1782,10 +1914,34 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1797,36 +1953,6 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1840,143 +1966,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1992,11 +1992,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3050,13 +3050,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>171449</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3101,13 +3101,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>77</xdr:row>
+          <xdr:row>82</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6857,7 +6857,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="125" t="s">
+      <c r="K1" s="129" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="40"/>
@@ -6884,7 +6884,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="126"/>
+      <c r="K2" s="130"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -6902,7 +6902,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="126"/>
+      <c r="K3" s="130"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -6946,18 +6946,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -7024,18 +7024,18 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="170"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="168"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
@@ -7434,10 +7434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7452,15 +7452,15 @@
       <c r="A1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="76" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="92"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="92"/>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7477,216 +7477,221 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="85" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="76" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="85"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="85" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="76" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="100" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="87"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="100" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="87"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="95" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="96"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="96"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="96"/>
-      <c r="J66" s="96"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="97"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="87"/>
+      <c r="L71" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A71:L71"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -7698,11 +7703,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7729,8 +7729,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7748,13 +7748,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>77</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
@@ -7818,7 +7818,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="125" t="s">
+      <c r="K1" s="129" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="53"/>
@@ -7839,7 +7839,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="126"/>
+      <c r="K2" s="130"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -7852,7 +7852,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="126"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -7867,152 +7867,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="131"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="134"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="131"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="145"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -8021,70 +8021,70 @@
       <c r="B16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="121"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="150"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="124"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="152"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="154"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -8093,16 +8093,16 @@
       <c r="B21" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="146" t="s">
+      <c r="C21" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
@@ -8111,16 +8111,16 @@
       <c r="B22" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="161"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
@@ -8129,14 +8129,14 @@
       <c r="B23" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
       <c r="A24" s="58">
@@ -8145,14 +8145,14 @@
       <c r="B24" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="164"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
       <c r="A25" s="58">
@@ -8161,52 +8161,52 @@
       <c r="B25" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="167"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="115"/>
     </row>
     <row r="26" spans="1:12" s="55" customFormat="1">
       <c r="A26" s="104"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="106"/>
     </row>
     <row r="27" spans="1:12" s="55" customFormat="1">
       <c r="A27" s="104"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="106"/>
     </row>
     <row r="28" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="156"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="59" t="s">
@@ -8221,14 +8221,14 @@
       <c r="D29" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="157" t="s">
+      <c r="E29" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
@@ -8237,180 +8237,180 @@
       <c r="B30" s="62"/>
       <c r="C30" s="63"/>
       <c r="D30" s="64"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1">
       <c r="A31" s="65"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="105"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="106"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="129"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="133"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="112"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="115"/>
+      <c r="A34" s="152"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="154"/>
     </row>
     <row r="35" spans="1:10" s="57" customFormat="1">
-      <c r="A35" s="113"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="115"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="154"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1">
-      <c r="A36" s="116"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="118"/>
+      <c r="A36" s="155"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="157"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="121" t="s">
+      <c r="A37" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="122"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="123"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="165"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="119" t="s">
+      <c r="B38" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="101" t="s">
+      <c r="C38" s="162"/>
+      <c r="D38" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="77"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="106"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="108"/>
+      <c r="A39" s="158"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="66"/>
       <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="103"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="66"/>
       <c r="B41" s="104"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="106"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="108"/>
+      <c r="A42" s="158"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="160"/>
     </row>
     <row r="43" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="66"/>
       <c r="B43" s="104"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="103"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="147"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="67" t="s">
@@ -8434,13 +8434,13 @@
         <v>4</v>
       </c>
       <c r="C45" s="104"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="77"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="85"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="66">
@@ -8449,27 +8449,27 @@
       <c r="B46" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="A33:J36"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A37:J37"/>
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="K1:K3"/>
@@ -8486,16 +8486,16 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="A33:J36"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C22:J25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8548,7 +8548,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="125" t="s">
+      <c r="K1" s="129" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="40"/>
@@ -8575,7 +8575,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="126"/>
+      <c r="K2" s="130"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -8593,7 +8593,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="126"/>
+      <c r="K3" s="130"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -8637,18 +8637,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -8715,18 +8715,18 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="170"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="168"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
@@ -9112,7 +9112,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="125" t="s">
+      <c r="K1" s="129" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="53"/>
@@ -9133,7 +9133,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="126"/>
+      <c r="K2" s="130"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -9146,7 +9146,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="126"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -9161,152 +9161,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="131"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="134"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="131"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="145"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -9315,30 +9315,30 @@
       <c r="B16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="121"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
       <c r="A18" s="171"/>
@@ -9353,32 +9353,32 @@
       <c r="J18" s="173"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36" customHeight="1">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -9387,16 +9387,16 @@
       <c r="B21" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="146" t="s">
+      <c r="C21" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
@@ -9405,16 +9405,16 @@
       <c r="B22" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="161"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
@@ -9423,14 +9423,14 @@
       <c r="B23" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
       <c r="A24" s="171"/>
@@ -9445,18 +9445,18 @@
       <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="59" t="s">
@@ -9471,14 +9471,14 @@
       <c r="D26" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="157" t="s">
+      <c r="E26" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
     </row>
@@ -9489,146 +9489,146 @@
       <c r="B27" s="62"/>
       <c r="C27" s="63"/>
       <c r="D27" s="64"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
     </row>
     <row r="28" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="127" t="s">
+      <c r="A28" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="129"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="133"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
     </row>
     <row r="29" spans="1:12" s="55" customFormat="1">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="112"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="151"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="118"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="157"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="123"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="165"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="101" t="s">
+      <c r="C32" s="162"/>
+      <c r="D32" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="77"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
     </row>
     <row r="33" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="106"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="177"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="170"/>
     </row>
     <row r="34" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="66"/>
       <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="77"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="85"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="66"/>
       <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="77"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="85"/>
     </row>
     <row r="36" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="106"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177"/>
+      <c r="A36" s="158"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="169"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="170"/>
     </row>
     <row r="37" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="66"/>
       <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="77"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="85"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="67" t="s">
@@ -9652,13 +9652,13 @@
         <v>4</v>
       </c>
       <c r="C39" s="104"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="77"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="85"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="66">
@@ -9667,24 +9667,29 @@
       <c r="B40" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:J37"/>
@@ -9701,18 +9706,13 @@
     <mergeCell ref="A29:J30"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9765,7 +9765,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="125" t="s">
+      <c r="K1" s="129" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="40"/>
@@ -9792,7 +9792,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="126"/>
+      <c r="K2" s="130"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9810,7 +9810,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="126"/>
+      <c r="K3" s="130"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9854,18 +9854,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -9932,18 +9932,18 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="170"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="168"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
@@ -10303,7 +10303,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="125" t="s">
+      <c r="K1" s="129" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="53"/>
@@ -10324,7 +10324,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="126"/>
+      <c r="K2" s="130"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -10337,7 +10337,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="126"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -10352,152 +10352,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="131"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="134"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="131"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="145"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -10506,70 +10506,70 @@
       <c r="B16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="121"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
       <c r="A18" s="104"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="116" t="s">
         <v>178</v>
       </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -10578,16 +10578,16 @@
       <c r="B21" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="146" t="s">
+      <c r="C21" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
@@ -10596,16 +10596,16 @@
       <c r="B22" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="161"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
@@ -10614,14 +10614,14 @@
       <c r="B23" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
       <c r="A24" s="171"/>
@@ -10636,46 +10636,46 @@
       <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="145"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
     </row>
     <row r="26" spans="1:12" s="55" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="99"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="177"/>
     </row>
     <row r="27" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="139" t="s">
+      <c r="A27" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="141"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="144"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
     </row>
@@ -10692,184 +10692,184 @@
       <c r="D28" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="157" t="s">
+      <c r="E28" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="62"/>
       <c r="B29" s="62"/>
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="112"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="151"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="118"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="157"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1">
-      <c r="A33" s="101"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="103"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="104"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="106"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="121" t="s">
+      <c r="A35" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="122"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="123"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="165"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="120"/>
-      <c r="D36" s="101" t="s">
+      <c r="C36" s="162"/>
+      <c r="D36" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="77"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="85"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="106"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="177"/>
+      <c r="A37" s="158"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="170"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66"/>
       <c r="B38" s="104"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="77"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="66"/>
       <c r="B39" s="104"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="77"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="85"/>
     </row>
     <row r="40" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="106"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="176"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="177"/>
+      <c r="A40" s="158"/>
+      <c r="B40" s="169"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
+      <c r="E40" s="169"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="169"/>
+      <c r="H40" s="169"/>
+      <c r="I40" s="169"/>
+      <c r="J40" s="170"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="66"/>
       <c r="B41" s="104"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="77"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="85"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="67" t="s">
@@ -10893,13 +10893,13 @@
         <v>4</v>
       </c>
       <c r="C43" s="104"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="85"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="66">
@@ -10908,17 +10908,40 @@
       <c r="B44" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="C22:J23"/>
+    <mergeCell ref="A31:J32"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A40:J40"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:J41"/>
@@ -10935,29 +10958,6 @@
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="C22:J23"/>
-    <mergeCell ref="A31:J32"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A20:J20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="IPO" sheetId="43" r:id="rId4"/>
+    <sheet name="IPO" sheetId="44" r:id="rId4"/>
     <sheet name="畫面_APF0505_UserProfile" sheetId="7" r:id="rId5"/>
     <sheet name="欄位_APF0505_UserProfile" sheetId="14" r:id="rId6"/>
     <sheet name="畫面_APF0505_Organization" sheetId="33" r:id="rId7"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="210">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -444,14 +444,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>emp_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_name</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>arrive_date</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -469,10 +461,6 @@
   </si>
   <si>
     <t>search_org_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>suda_work_id</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -635,10 +623,6 @@
   </si>
   <si>
     <t>org_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_name</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -792,14 +776,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>suda_work</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>suda_work_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>S0001~S0009</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -881,10 +857,6 @@
   </si>
   <si>
     <t>權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -896,6 +868,112 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>上層單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可查詢範圍單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位類型代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位類型名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>(預設為本身單位代號)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0505_UserProfile</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0505_Organization</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0505_Work</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0505_UserProfile</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0505_Organization</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0505_Work</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人員組織主檔資料查詢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+  </si>
+  <si>
+    <t>suda_work_id</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>單位代號</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -904,90 +982,24 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>上層單位代號</t>
+    <t>org_name</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>可查詢範圍單位代號</t>
+    <t>suda_work</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>單位類型代號</t>
+    <t>suda_work_id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>單位類型名稱</t>
+    <t>權限職稱代號</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>(預設為本身單位代號)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0505_UserProfile</t>
+    <t>回總表</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0505_Organization</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0505_Work</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0505_UserProfile</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0505_Organization</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0505_Work</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人員組織主檔資料查詢</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI控制項代號</t>
-  </si>
-  <si>
-    <t>UI控制項型態及長度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI控制項型態及長度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI控制項型態及長度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -1698,6 +1710,42 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1710,24 +1758,9 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1737,39 +1770,177 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1782,15 +1953,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1816,181 +1978,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3050,13 +3062,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9524</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>69</xdr:row>
-          <xdr:rowOff>171449</xdr:rowOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3156,6 +3168,1091 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1428750"/>
+          <a:ext cx="9906000" cy="512989"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38913" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s38913"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="群組 10"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1050" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>APF0505 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1050" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>人員組織主檔資料查詢</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131119</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
@@ -3676,7 +4773,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4173,7 +5270,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4687,7 +5784,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5203,7 +6300,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5753,7 +6850,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6690,14 +7787,14 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -6705,21 +7802,21 @@
         <v>74</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="74"/>
       <c r="B6" s="35" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -6727,21 +7824,21 @@
         <v>75</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="74"/>
       <c r="B8" s="35" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
@@ -6749,21 +7846,21 @@
         <v>76</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="74"/>
       <c r="B10" s="35" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -6827,7 +7924,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6857,7 +7954,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="129" t="s">
+      <c r="K1" s="123" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="40"/>
@@ -6884,7 +7981,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="130"/>
+      <c r="K2" s="124"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -6902,7 +7999,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="130"/>
+      <c r="K3" s="124"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -6976,7 +8073,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>22</v>
@@ -6991,7 +8088,7 @@
         <v>62</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -7045,10 +8142,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>22</v>
@@ -7063,7 +8160,7 @@
         <v>62</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -7074,25 +8171,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -7100,25 +8197,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F13" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>167</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>173</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -7126,25 +8223,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -7436,8 +8533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7452,15 +8549,15 @@
       <c r="A1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="88" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="77"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="77"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7477,45 +8574,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="95"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="98"/>
+      <c r="A6" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="80" t="s">
         <v>26</v>
       </c>
@@ -7527,31 +8624,31 @@
       <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="84" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="84"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="80" t="s">
         <v>28</v>
       </c>
@@ -7563,32 +8660,32 @@
       <c r="L9" s="82"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="84" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="84"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91" t="s">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="96" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="81"/>
@@ -7599,30 +8696,30 @@
       <c r="L11" s="82"/>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="84"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="96" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="81"/>
@@ -7633,60 +8730,55 @@
       <c r="L13" s="82"/>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="84"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="85"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="84"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="86" t="s">
+      <c r="A71" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="88"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -7703,6 +8795,11 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7770,15 +8867,66 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="88" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="89"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="38913" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="38913" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -7818,7 +8966,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="129" t="s">
+      <c r="K1" s="123" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="53"/>
@@ -7839,7 +8987,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="130"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -7852,7 +9000,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="130"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -7867,7 +9015,7 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="128" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="81"/>
@@ -7881,57 +9029,57 @@
       <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="135"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="138"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="135"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="139"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="128" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="81"/>
@@ -7945,21 +9093,21 @@
       <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="142" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="128" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="81"/>
@@ -7973,21 +9121,21 @@
       <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="128" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="81"/>
@@ -8001,18 +9149,18 @@
       <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
+      <c r="A15" s="141" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="143"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -8021,70 +9169,70 @@
       <c r="B16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="121"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="124"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="149"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="116" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="A20" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -8093,120 +9241,120 @@
       <c r="B21" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="121"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+        <v>150</v>
+      </c>
+      <c r="C22" s="157" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="159"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="112"/>
+        <v>151</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="162"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
       <c r="A24" s="58">
         <v>3</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="112"/>
+        <v>114</v>
+      </c>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
       <c r="A25" s="58">
         <v>4</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="115"/>
+        <v>116</v>
+      </c>
+      <c r="C25" s="163"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="1:12" s="55" customFormat="1">
-      <c r="A26" s="104"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="106"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="103"/>
     </row>
     <row r="27" spans="1:12" s="55" customFormat="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="106"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="103"/>
     </row>
     <row r="28" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="154"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="59" t="s">
@@ -8221,14 +9369,14 @@
       <c r="D29" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="102" t="s">
+      <c r="E29" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
@@ -8237,180 +9385,180 @@
       <c r="B30" s="62"/>
       <c r="C30" s="63"/>
       <c r="D30" s="64"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1">
       <c r="A31" s="65"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="106"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="103"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1">
-      <c r="A32" s="131" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="133"/>
+      <c r="A32" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="127"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="149" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+      <c r="A33" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="110"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1">
-      <c r="A34" s="152"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="154"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="113"/>
     </row>
     <row r="35" spans="1:10" s="57" customFormat="1">
-      <c r="A35" s="152"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="154"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="113"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1">
-      <c r="A36" s="155"/>
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="157"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="116"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="163" t="s">
+      <c r="A37" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="164"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="165"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="121"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="161" t="s">
+      <c r="B38" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="162"/>
-      <c r="D38" s="145" t="s">
+      <c r="C38" s="118"/>
+      <c r="D38" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="85"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="84"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="158"/>
-      <c r="B39" s="159"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="159"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="160"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="106"/>
     </row>
     <row r="40" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="66"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="147"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101"/>
     </row>
     <row r="41" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="66"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="147"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="101"/>
     </row>
     <row r="42" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="158"/>
-      <c r="B42" s="159"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="159"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="160"/>
+      <c r="A42" s="104"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="106"/>
     </row>
     <row r="43" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="147"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="67" t="s">
@@ -8433,14 +9581,14 @@
       <c r="B45" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="85"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="84"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="66">
@@ -8449,27 +9597,27 @@
       <c r="B46" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="A33:J36"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="K1:K3"/>
@@ -8486,16 +9634,16 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="D38:J38"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="A33:J36"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8517,8 +9665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8548,7 +9696,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="129" t="s">
+      <c r="K1" s="123" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="40"/>
@@ -8575,7 +9723,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="130"/>
+      <c r="K2" s="124"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -8593,7 +9741,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="130"/>
+      <c r="K3" s="124"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -8667,7 +9815,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>22</v>
@@ -8682,7 +9830,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -8736,10 +9884,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>22</v>
@@ -8754,7 +9902,7 @@
         <v>60</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -8765,7 +9913,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
@@ -8773,14 +9921,14 @@
         <v>78</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -8789,7 +9937,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
@@ -8797,14 +9945,14 @@
         <v>78</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -8813,25 +9961,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
@@ -8839,7 +9987,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="46"/>
@@ -8847,17 +9995,17 @@
         <v>78</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -8865,7 +10013,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="46"/>
@@ -8873,14 +10021,14 @@
         <v>78</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J16" s="73" t="s">
         <v>79</v>
@@ -8891,7 +10039,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="46"/>
@@ -8899,14 +10047,14 @@
         <v>78</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J17" s="49"/>
     </row>
@@ -8915,7 +10063,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="46"/>
@@ -8923,14 +10071,14 @@
         <v>78</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -8939,7 +10087,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="46"/>
@@ -8947,14 +10095,14 @@
         <v>78</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -8963,7 +10111,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="46"/>
@@ -8971,14 +10119,14 @@
         <v>78</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J20" s="49"/>
     </row>
@@ -8987,7 +10135,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
@@ -8995,14 +10143,14 @@
         <v>78</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J21" s="49"/>
     </row>
@@ -9011,7 +10159,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -9019,14 +10167,14 @@
         <v>78</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J22" s="52"/>
     </row>
@@ -9035,7 +10183,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="46"/>
@@ -9043,17 +10191,17 @@
         <v>78</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -9112,7 +10260,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="129" t="s">
+      <c r="K1" s="123" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="53"/>
@@ -9133,7 +10281,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="130"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -9146,7 +10294,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="130"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -9161,7 +10309,7 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="128" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="81"/>
@@ -9175,57 +10323,57 @@
       <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="135"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="138"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="135"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="139"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="128" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="81"/>
@@ -9239,21 +10387,21 @@
       <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="142" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="136" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="128" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="81"/>
@@ -9267,21 +10415,21 @@
       <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="128" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="81"/>
@@ -9295,18 +10443,18 @@
       <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="116" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
+      <c r="A15" s="141" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="143"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -9315,70 +10463,70 @@
       <c r="B16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="121"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="106"/>
+      <c r="A17" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="103"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="171"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="173"/>
+      <c r="A18" s="169"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="36" customHeight="1">
-      <c r="A20" s="116" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="A20" s="141" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -9387,76 +10535,76 @@
       <c r="B21" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="121"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+        <v>154</v>
+      </c>
+      <c r="C22" s="157" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="159"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="112"/>
+        <v>155</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="162"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="171"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="173"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="144"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="139"/>
     </row>
     <row r="26" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="59" t="s">
@@ -9471,14 +10619,14 @@
       <c r="D26" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="102" t="s">
+      <c r="E26" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
     </row>
@@ -9489,146 +10637,146 @@
       <c r="B27" s="62"/>
       <c r="C27" s="63"/>
       <c r="D27" s="64"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
     </row>
     <row r="28" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="131" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="133"/>
+      <c r="A28" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="127"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
     </row>
     <row r="29" spans="1:12" s="55" customFormat="1">
-      <c r="A29" s="149" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="151"/>
+      <c r="A29" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="110"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A30" s="155"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="157"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="116"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="165"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="121"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="162"/>
-      <c r="D32" s="145" t="s">
+      <c r="C32" s="118"/>
+      <c r="D32" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="84"/>
     </row>
     <row r="33" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="158"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="170"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
     </row>
     <row r="34" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="85"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="84"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="84"/>
     </row>
     <row r="36" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="158"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="170"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="175"/>
     </row>
     <row r="37" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="145"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="85"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="84"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="67" t="s">
@@ -9651,14 +10799,14 @@
       <c r="B39" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="85"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="84"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="66">
@@ -9667,29 +10815,24 @@
       <c r="B40" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:J37"/>
@@ -9706,13 +10849,18 @@
     <mergeCell ref="A29:J30"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9734,8 +10882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9765,7 +10913,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="129" t="s">
+      <c r="K1" s="123" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="40"/>
@@ -9792,7 +10940,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="130"/>
+      <c r="K2" s="124"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9810,7 +10958,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="130"/>
+      <c r="K3" s="124"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9884,7 +11032,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>22</v>
@@ -9899,7 +11047,7 @@
         <v>61</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -9953,10 +11101,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>22</v>
@@ -9971,7 +11119,7 @@
         <v>61</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -9982,22 +11130,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
       <c r="E12" s="50" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J12" s="50"/>
     </row>
@@ -10006,22 +11154,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
       <c r="E13" s="50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J13" s="50"/>
     </row>
@@ -10030,18 +11178,18 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="46"/>
       <c r="E14" s="50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
@@ -10054,18 +11202,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="46"/>
       <c r="E15" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>130</v>
-      </c>
       <c r="G15" s="50" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
@@ -10078,18 +11226,18 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="46"/>
       <c r="E16" s="50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
@@ -10102,25 +11250,25 @@
         <v>6</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="46"/>
       <c r="E17" s="50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="44" t="s">
         <v>54</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10128,25 +11276,25 @@
         <v>7</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="46"/>
       <c r="E18" s="50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
         <v>54</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10154,25 +11302,25 @@
         <v>8</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="46"/>
       <c r="E19" s="50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
         <v>54</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10180,15 +11328,15 @@
         <v>9</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="46"/>
       <c r="E20" s="50" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="46"/>
@@ -10202,25 +11350,25 @@
         <v>10</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
         <v>54</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -10228,18 +11376,18 @@
         <v>11</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="46"/>
       <c r="E22" s="50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="44" t="s">
@@ -10303,7 +11451,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="129" t="s">
+      <c r="K1" s="123" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="53"/>
@@ -10324,7 +11472,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="130"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -10337,7 +11485,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="130"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -10352,7 +11500,7 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="128" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="81"/>
@@ -10366,57 +11514,57 @@
       <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="135"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="138"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="135"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="139"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="128" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="81"/>
@@ -10430,21 +11578,21 @@
       <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="128" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="81"/>
@@ -10458,21 +11606,21 @@
       <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="128" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="81"/>
@@ -10486,18 +11634,18 @@
       <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="116" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
+      <c r="A15" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="143"/>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="58" t="s">
@@ -10506,70 +11654,70 @@
       <c r="B16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="121"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="106"/>
+      <c r="A17" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="103"/>
     </row>
     <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="106"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="103"/>
     </row>
     <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
-      <c r="A20" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="A20" s="141" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="58" t="s">
@@ -10578,104 +11726,104 @@
       <c r="B21" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="121"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="58">
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+        <v>173</v>
+      </c>
+      <c r="C22" s="157" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="159"/>
     </row>
     <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="58">
         <v>2</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="112"/>
+        <v>175</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="162"/>
     </row>
     <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="171"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="173"/>
     </row>
     <row r="25" spans="1:12" s="55" customFormat="1">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="143"/>
     </row>
     <row r="26" spans="1:12" s="55" customFormat="1" ht="27" customHeight="1">
       <c r="A26" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
       <c r="J26" s="177"/>
     </row>
     <row r="27" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="144"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="139"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
     </row>
@@ -10692,184 +11840,184 @@
       <c r="D28" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="102" t="s">
+      <c r="E28" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
     </row>
     <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="62"/>
       <c r="B29" s="62"/>
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
     <row r="30" spans="1:12" s="55" customFormat="1">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="133"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="127"/>
     </row>
     <row r="31" spans="1:12" s="55" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A31" s="149" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="151"/>
+      <c r="A31" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="110"/>
     </row>
     <row r="32" spans="1:12" s="55" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A32" s="155"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="157"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1">
-      <c r="A33" s="145"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="147"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="101"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="104"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="106"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="103"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="163" t="s">
+      <c r="A35" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="164"/>
-      <c r="C35" s="164"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="165"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="121"/>
     </row>
     <row r="36" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="161" t="s">
+      <c r="B36" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="D36" s="145" t="s">
+      <c r="C36" s="118"/>
+      <c r="D36" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="85"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="84"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="158"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="170"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="175"/>
     </row>
     <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="66"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="85"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="84"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="66"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="85"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="84"/>
     </row>
     <row r="40" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="158"/>
-      <c r="B40" s="169"/>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="170"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="174"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="175"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="66"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="85"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="84"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="67" t="s">
@@ -10892,14 +12040,14 @@
       <c r="B43" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="85"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="84"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="66">
@@ -10908,17 +12056,40 @@
       <c r="B44" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A40:J40"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="C22:J23"/>
     <mergeCell ref="A31:J32"/>
@@ -10935,29 +12106,6 @@
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="C21:J21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/RA006/RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -9,57 +9,57 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
     <sheet name="IPO" sheetId="44" r:id="rId4"/>
-    <sheet name="畫面_APF0505_UserProfile" sheetId="7" r:id="rId5"/>
+    <sheet name="API_APF0505_UserProfile" sheetId="7" r:id="rId5"/>
     <sheet name="欄位_APF0505_UserProfile" sheetId="14" r:id="rId6"/>
-    <sheet name="畫面_APF0505_Organization" sheetId="33" r:id="rId7"/>
+    <sheet name="API_APF0505_Organization" sheetId="33" r:id="rId7"/>
     <sheet name="欄位_APF0505_Organization" sheetId="34" r:id="rId8"/>
-    <sheet name="畫面_APF0505_Work" sheetId="35" r:id="rId9"/>
-    <sheet name="欄位_APF0505_Work" sheetId="36" r:id="rId10"/>
+    <sheet name="API_APF0505_SudaWork" sheetId="35" r:id="rId9"/>
+    <sheet name="欄位_APF0505_SudaWork" sheetId="36" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">API_APF0505_Organization!$A$1:$J$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">API_APF0505_SudaWork!$A$1:$J$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">API_APF0505_UserProfile!$A$1:$J$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0505_Organization!$A$1:$J$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0505_UserProfile!$A$1:$J$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">畫面_APF0505_Work!$A$1:$J$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0505_Organization!$A$1:$J$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">欄位_APF0505_SudaWork!$A$1:$J$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0505_UserProfile!$A$1:$J$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">欄位_APF0505_Work!$A$1:$J$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">API_APF0505_Organization!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">API_APF0505_SudaWork!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">API_APF0505_UserProfile!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">畫面_APF0505_Organization!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0505_UserProfile!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">畫面_APF0505_Work!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">欄位_APF0505_Organization!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">欄位_APF0505_SudaWork!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0505_UserProfile!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">欄位_APF0505_Work!$1:$5</definedName>
     <definedName name="solver_lin" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_lin" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_lin" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">畫面_APF0505_Organization!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0505_UserProfile!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="8" hidden="1">畫面_APF0505_Work!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">API_APF0505_Organization!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">API_APF0505_SudaWork!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">API_APF0505_UserProfile!#REF!</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="194">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -108,14 +108,6 @@
   </si>
   <si>
     <t>事後檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前端檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>後端檢核</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -150,10 +142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>修改說明</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -229,18 +217,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>控制項名稱</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -338,18 +314,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>預設值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -360,24 +324,6 @@
   <si>
     <t>預設值</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0101MU1_Link</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101MU1_Edit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:APF0101MM1
-1.1 SESSION內容:
-1.2 成立條件:該使用者擁有此功能修改權限</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>系統管理模組</t>
@@ -445,67 +391,67 @@
   </si>
   <si>
     <t>arrive_date</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_date</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_type</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>leave_date</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_type</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>org_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>search_org_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>suda_work_name</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>position_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>position_name</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>emp_state</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(20)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>varhchar(1)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(50)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
@@ -517,35 +463,35 @@
   </si>
   <si>
     <t>到職日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>離職日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>人員類型</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>可查詢範圍組織代號</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱名稱</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>權限職稱名稱</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>速達職稱代號</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>速達職稱名稱</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>員工狀態</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>0:失效，1:生效中，2:未來生效</t>
@@ -558,14 +504,6 @@
   <si>
     <t>正式人員為離職日期，非正式人員為生效迄日</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0505_UserProfile</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1.前畫面:無
@@ -575,23 +513,15 @@
   </si>
   <si>
     <t>varchar2(10)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬單位代號</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱代號</t>
     <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>所屬單位代號</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>所屬單位代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>vw_emp_unique</t>
@@ -719,64 +649,239 @@
   </si>
   <si>
     <t>員工編號</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>員工姓名</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:
-1.1 SESSION內容:
-1.2 成立條件:</t>
-    <phoneticPr fontId="2"/>
+    <t>S0001~S0009</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱不可重複</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否刪除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_flag</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上層單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可查詢範圍單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位類型代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位類型名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>(預設為本身單位代號)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0505_UserProfile</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0505_Organization</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>人員組織主檔資料查詢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+  </si>
+  <si>
+    <t>suda_work_id</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2(50)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>無</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>單位代號</t>
+    <t>Function說明</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>單位名稱</t>
+    <t>GetEmps</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">APF0505_UserProfile
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫API時</t>
-    </r>
+    <t>取得所有員工資料。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APF0505_Organization</t>
+    <t>GetEmpByCondition</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無</t>
+    <t>依條件取得員工資料</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>S0001~S0009</t>
+    <t>emp_unique物件</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GetOrgs</t>
+  </si>
+  <si>
+    <t>取得所有單位資料。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GetOrgByIDAndName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>org_id、org_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>依單位代號、單位名稱取得單位資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GetSudaWork</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得所有職稱資料。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GetSudaWorkByIDAndName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>依權限職稱代號、權限職稱名稱取得職稱資料。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>suda_work_id、suda_work_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>API_APF0505_UserProfile</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_APF0505_Organization</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -784,222 +889,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>suda_work_name</t>
+    <t>API_APF0505_SudaWork</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>名稱不可重複</t>
+    <t>欄位_APF0505_SudaWork</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否刪除</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>del_flag</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y/N</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(5)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(50)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0505_Work</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>APF0505_Organization</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-檢查時機：呼叫API時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0505_Work
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫API時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>權限職稱名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上層單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可查詢範圍單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位類型代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位類型名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>(預設為本身單位代號)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0505_UserProfile</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0505_Organization</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0505_Work</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0505_UserProfile</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0505_Organization</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0505_Work</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人員組織主檔資料查詢</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI控制項代號</t>
-  </si>
-  <si>
-    <t>UI控制項型態及長度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI控制項型態及長度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI控制項型態及長度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輸入/輸出/必填</t>
-  </si>
-  <si>
-    <t>suda_work_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_name</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>suda_work</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>suda_work_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1009,7 +904,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1164,13 +1059,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="標楷體"/>
@@ -1236,7 +1124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1406,15 +1294,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="double">
@@ -1505,7 +1384,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1585,31 +1464,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1652,15 +1531,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1676,9 +1549,6 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1700,14 +1570,13 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1746,7 +1615,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1794,45 +1663,18 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1851,96 +1693,24 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1952,63 +1722,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3119,8 +2838,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>82</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7736,8 +7455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7750,117 +7469,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="A1" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>184</v>
-      </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="36" t="s">
-        <v>189</v>
+      <c r="D5" s="123" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="35" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="74" t="s">
-        <v>75</v>
+      <c r="A7" s="70" t="s">
+        <v>62</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C7" s="35"/>
-      <c r="D7" s="36" t="s">
-        <v>189</v>
+      <c r="D7" s="123" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="74"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="35" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="74" t="s">
-        <v>76</v>
+      <c r="A9" s="70" t="s">
+        <v>63</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C9" s="35"/>
-      <c r="D9" s="36" t="s">
-        <v>189</v>
+      <c r="D9" s="123" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="74"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="35" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="36" t="s">
-        <v>189</v>
+      <c r="D10" s="123" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -7907,11 +7626,11 @@
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
     <hyperlink ref="D6" location="欄位_APF0505_UserProfile!A1" display="View"/>
-    <hyperlink ref="D7" location="畫面_APF0505_Organization!A1" display="View"/>
+    <hyperlink ref="D7" location="API_APF0505_Organization!A1" display="View"/>
     <hyperlink ref="D8" location="欄位_APF0505_Organization!A1" display="View"/>
-    <hyperlink ref="D9" location="畫面_APF0505_Work!A1" display="View"/>
-    <hyperlink ref="D10" location="欄位_APF0505_Work!A1" display="View"/>
-    <hyperlink ref="D5" location="畫面_APF0505_UserProfile!A1" display="View"/>
+    <hyperlink ref="D9" location="API_APF0505_SudaWork!A1" display="View"/>
+    <hyperlink ref="D10" location="欄位_APF0505_SudaWork!A1" display="View"/>
+    <hyperlink ref="D5" location="API_APF0505_UserProfile!A1" display="View"/>
     <hyperlink ref="D4" location="IPO!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7924,7 +7643,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7954,8 +7673,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="123" t="s">
-        <v>52</v>
+      <c r="K1" s="110" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -7981,7 +7700,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="124"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -7999,7 +7718,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="124"/>
+      <c r="K3" s="111"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -8043,18 +7762,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="166" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="A6" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="122"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -8067,28 +7786,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="43" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -8121,46 +7840,46 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="166" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="168"/>
+      <c r="A10" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -8171,25 +7890,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -8197,25 +7916,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -8223,25 +7942,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -8375,13 +8094,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
@@ -8397,10 +8116,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D6" s="22">
         <v>41561</v>
@@ -8533,7 +8252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -8547,17 +8266,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="88" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="89"/>
+      <c r="M2" s="85"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="89"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -8574,208 +8293,208 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="94"/>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="83"/>
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98"/>
-    </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
-    </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="76" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="80" t="s">
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
+    </row>
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="84"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="80" t="s">
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
+      <c r="A12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="80"/>
+    </row>
+    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="84"/>
-    </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="76" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="82"/>
-    </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
-    </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A14" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
+      <c r="A14" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="80"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84"/>
+      <c r="A15" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="80"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="95"/>
+      <c r="A71" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -8851,8 +8570,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:row>81</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8870,22 +8589,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="88" t="s">
-        <v>209</v>
+      <c r="P1" s="84" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="89"/>
+      <c r="P2" s="85"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="89"/>
+      <c r="P3" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8933,10 +8652,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E11" sqref="E11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8966,8 +8685,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="123" t="s">
-        <v>52</v>
+      <c r="K1" s="110" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
@@ -8987,7 +8706,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="124"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -9000,7 +8719,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="124"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -9014,636 +8733,313 @@
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-    </row>
-    <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
-    </row>
-    <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="129"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="56"/>
-    </row>
-    <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
-    </row>
-    <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="128" t="s">
+    <row r="5" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
-    </row>
-    <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="136" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-    </row>
-    <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="128" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+    </row>
+    <row r="6" spans="1:17" s="56" customFormat="1" ht="51" customHeight="1">
+      <c r="A6" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
-    </row>
-    <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="136" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+    </row>
+    <row r="8" spans="1:17" s="56" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A8" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+    </row>
+    <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:17" s="55" customFormat="1" ht="69" customHeight="1">
+      <c r="A11" s="60">
+        <v>1</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:17" s="55" customFormat="1" ht="69" customHeight="1">
+      <c r="A12" s="60">
+        <v>2</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:17" s="55" customFormat="1">
+      <c r="A13" s="62"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-    </row>
-    <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="141" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
-    </row>
-    <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A14" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
+    </row>
+    <row r="15" spans="1:17" s="56" customFormat="1">
+      <c r="A15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-    </row>
-    <row r="17" spans="1:12" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="147" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
-    </row>
-    <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="150"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
-    </row>
-    <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="137" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="139"/>
-    </row>
-    <row r="20" spans="1:12" s="55" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="141" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="143"/>
-    </row>
-    <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="144" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-    </row>
-    <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="58">
+      <c r="B15" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+    </row>
+    <row r="16" spans="1:17" s="56" customFormat="1">
+      <c r="A16" s="100"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102"/>
+    </row>
+    <row r="17" spans="1:10" s="55" customFormat="1">
+      <c r="A17" s="63"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="63"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
+    </row>
+    <row r="19" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="100"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="102"/>
+    </row>
+    <row r="20" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
+    </row>
+    <row r="21" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="63">
         <v>1</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="157" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
-    </row>
-    <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="58">
+      <c r="B22" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="98"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
+    </row>
+    <row r="23" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="63">
         <v>2</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
-    </row>
-    <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="58">
-        <v>3</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
-    </row>
-    <row r="25" spans="1:12" s="55" customFormat="1">
-      <c r="A25" s="58">
+      <c r="B23" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="163"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="165"/>
-    </row>
-    <row r="26" spans="1:12" s="55" customFormat="1">
-      <c r="A26" s="102"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="103"/>
-    </row>
-    <row r="27" spans="1:12" s="55" customFormat="1">
-      <c r="A27" s="102"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="103"/>
-    </row>
-    <row r="28" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="154"/>
-    </row>
-    <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="155" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-    </row>
-    <row r="30" spans="1:12" s="55" customFormat="1" ht="33" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-    </row>
-    <row r="31" spans="1:12" s="55" customFormat="1">
-      <c r="A31" s="65"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="103"/>
-    </row>
-    <row r="32" spans="1:12" s="55" customFormat="1">
-      <c r="A32" s="125" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="127"/>
-    </row>
-    <row r="33" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="110"/>
-    </row>
-    <row r="34" spans="1:10" s="57" customFormat="1">
-      <c r="A34" s="111"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="113"/>
-    </row>
-    <row r="35" spans="1:10" s="57" customFormat="1">
-      <c r="A35" s="111"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="113"/>
-    </row>
-    <row r="36" spans="1:10" s="55" customFormat="1">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-    </row>
-    <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="121"/>
-    </row>
-    <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="84"/>
-    </row>
-    <row r="39" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="104"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="106"/>
-    </row>
-    <row r="40" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="66"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="101"/>
-    </row>
-    <row r="41" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="66"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="101"/>
-    </row>
-    <row r="42" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="104"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="106"/>
-    </row>
-    <row r="43" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="66"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="101"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="70"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="66">
-        <v>1</v>
-      </c>
-      <c r="B45" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="102"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="84"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="66">
-        <v>2</v>
-      </c>
-      <c r="B46" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C45:J45"/>
+  <mergeCells count="23">
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="A33:J36"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9665,8 +9061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9696,8 +9092,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="123" t="s">
-        <v>52</v>
+      <c r="K1" s="110" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -9723,7 +9119,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="124"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9741,7 +9137,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="124"/>
+      <c r="K3" s="111"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9785,18 +9181,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="166" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="A6" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="122"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -9809,28 +9205,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="43" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -9863,46 +9259,46 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="166" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="168"/>
+      <c r="A10" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -9913,22 +9309,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -9937,22 +9333,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -9961,25 +9357,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="73" t="s">
-        <v>107</v>
+        <v>83</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
@@ -9987,25 +9383,25 @@
         <v>4</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="46" t="s">
         <v>78</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>91</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="73" t="s">
-        <v>108</v>
+        <v>83</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -10013,25 +9409,25 @@
         <v>5</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="73" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10039,22 +9435,22 @@
         <v>6</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="44" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="J17" s="49"/>
     </row>
@@ -10063,22 +9459,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -10087,22 +9483,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -10111,22 +9507,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J20" s="49"/>
     </row>
@@ -10135,22 +9531,22 @@
         <v>10</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J21" s="49"/>
     </row>
@@ -10159,22 +9555,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
       <c r="E22" s="46" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J22" s="52"/>
     </row>
@@ -10183,25 +9579,25 @@
         <v>12</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -10228,10 +9624,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10260,8 +9656,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="123" t="s">
-        <v>52</v>
+      <c r="K1" s="110" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
@@ -10281,7 +9677,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="124"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -10294,7 +9690,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="124"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -10308,559 +9704,313 @@
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-    </row>
-    <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
-    </row>
-    <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="129"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="56"/>
-    </row>
-    <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
-    </row>
-    <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="128" t="s">
+    <row r="5" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
-    </row>
-    <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="136" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-    </row>
-    <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="128" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+    </row>
+    <row r="6" spans="1:17" s="56" customFormat="1" ht="51" customHeight="1">
+      <c r="A6" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
-    </row>
-    <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="136" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+    </row>
+    <row r="8" spans="1:17" s="56" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A8" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+    </row>
+    <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:17" s="55" customFormat="1" ht="69" customHeight="1">
+      <c r="A11" s="60">
+        <v>1</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:17" s="55" customFormat="1" ht="69" customHeight="1">
+      <c r="A12" s="60">
+        <v>2</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:17" s="55" customFormat="1">
+      <c r="A13" s="62"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-    </row>
-    <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
-    </row>
-    <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A14" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
+    </row>
+    <row r="15" spans="1:17" s="56" customFormat="1">
+      <c r="A15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-    </row>
-    <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="103"/>
-    </row>
-    <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="169"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
-    </row>
-    <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="137" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="139"/>
-    </row>
-    <row r="20" spans="1:12" s="55" customFormat="1" ht="36" customHeight="1">
-      <c r="A20" s="141" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="143"/>
-    </row>
-    <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-    </row>
-    <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="58">
+      <c r="B15" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+    </row>
+    <row r="16" spans="1:17" s="56" customFormat="1">
+      <c r="A16" s="100"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102"/>
+    </row>
+    <row r="17" spans="1:10" s="55" customFormat="1">
+      <c r="A17" s="63"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="63"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
+    </row>
+    <row r="19" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="100"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="102"/>
+    </row>
+    <row r="20" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
+    </row>
+    <row r="21" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="63">
         <v>1</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="157" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
-    </row>
-    <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="58">
+      <c r="B22" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="98"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
+    </row>
+    <row r="23" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="63">
         <v>2</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
-    </row>
-    <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="169"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="173"/>
-    </row>
-    <row r="25" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="139"/>
-    </row>
-    <row r="26" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="155" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-    </row>
-    <row r="27" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="62">
-        <v>1</v>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-    </row>
-    <row r="28" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="125" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-    </row>
-    <row r="29" spans="1:12" s="55" customFormat="1">
-      <c r="A29" s="108" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="110"/>
-    </row>
-    <row r="30" spans="1:12" s="55" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-    </row>
-    <row r="31" spans="1:12" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="121"/>
-    </row>
-    <row r="32" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="84"/>
-    </row>
-    <row r="33" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="175"/>
-    </row>
-    <row r="34" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="84"/>
-    </row>
-    <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="84"/>
-    </row>
-    <row r="36" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="104"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="175"/>
-    </row>
-    <row r="37" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="66"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="84"/>
-    </row>
-    <row r="38" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="70"/>
-    </row>
-    <row r="39" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="66">
-        <v>1</v>
-      </c>
-      <c r="B39" s="71" t="s">
+      <c r="B23" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="102"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="84"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="66">
-        <v>2</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A36:J36"/>
+  <mergeCells count="23">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="C22:J23"/>
-    <mergeCell ref="A29:J30"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="B13:J13"/>
     <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10883,7 +10033,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E12" sqref="E12:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10913,8 +10063,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="123" t="s">
-        <v>52</v>
+      <c r="K1" s="110" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -10940,7 +10090,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="124"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -10958,7 +10108,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="124"/>
+      <c r="K3" s="111"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -11002,18 +10152,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="166" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="A6" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="122"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -11026,28 +10176,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="43" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -11080,46 +10230,46 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="166" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="168"/>
+      <c r="A10" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -11130,22 +10280,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="46"/>
       <c r="E12" s="50" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="J12" s="50"/>
     </row>
@@ -11154,22 +10304,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="46"/>
       <c r="E13" s="50" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="J13" s="50"/>
     </row>
@@ -11178,22 +10328,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="46"/>
       <c r="E14" s="50" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J14" s="50"/>
     </row>
@@ -11202,22 +10352,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="46"/>
       <c r="E15" s="50" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J15" s="50"/>
     </row>
@@ -11226,22 +10376,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="46"/>
       <c r="E16" s="50" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J16" s="50"/>
     </row>
@@ -11250,25 +10400,25 @@
         <v>6</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="46"/>
       <c r="E17" s="50" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11276,25 +10426,25 @@
         <v>7</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="46"/>
       <c r="E18" s="50" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11302,25 +10452,25 @@
         <v>8</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="46"/>
       <c r="E19" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="50" t="s">
         <v>123</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>140</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11328,20 +10478,20 @@
         <v>9</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="46"/>
       <c r="E20" s="50" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J20" s="50"/>
     </row>
@@ -11350,25 +10500,25 @@
         <v>10</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="50" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -11376,22 +10526,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="46"/>
       <c r="E22" s="50" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J22" s="50"/>
     </row>
@@ -11419,10 +10569,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:J29"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11451,8 +10601,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="123" t="s">
-        <v>52</v>
+      <c r="K1" s="110" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
@@ -11472,7 +10622,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="124"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1">
       <c r="A3" s="48"/>
@@ -11485,7 +10635,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="124"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:17" s="54" customFormat="1">
       <c r="A4" s="48"/>
@@ -11499,613 +10649,313 @@
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-    </row>
-    <row r="6" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
-    </row>
-    <row r="7" spans="1:17" s="55" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="129"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="56"/>
-    </row>
-    <row r="8" spans="1:17" s="55" customFormat="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="9" spans="1:17" s="55" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
-    </row>
-    <row r="10" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="128" t="s">
+    <row r="5" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
-    </row>
-    <row r="11" spans="1:17" s="57" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="136" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-    </row>
-    <row r="12" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="128" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+    </row>
+    <row r="6" spans="1:17" s="56" customFormat="1" ht="51" customHeight="1">
+      <c r="A6" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
-    </row>
-    <row r="13" spans="1:17" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="136" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+    </row>
+    <row r="8" spans="1:17" s="56" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A8" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+    </row>
+    <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:17" s="55" customFormat="1" ht="69" customHeight="1">
+      <c r="A11" s="60">
+        <v>1</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="115" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:17" s="55" customFormat="1" ht="69" customHeight="1">
+      <c r="A12" s="60">
+        <v>2</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:17" s="55" customFormat="1">
+      <c r="A13" s="62"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-    </row>
-    <row r="15" spans="1:17" s="55" customFormat="1">
-      <c r="A15" s="141" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
-    </row>
-    <row r="16" spans="1:17" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A14" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
+    </row>
+    <row r="15" spans="1:17" s="56" customFormat="1">
+      <c r="A15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-    </row>
-    <row r="17" spans="1:12" s="55" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="103"/>
-    </row>
-    <row r="18" spans="1:12" s="55" customFormat="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="103"/>
-    </row>
-    <row r="19" spans="1:12" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="137" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="139"/>
-    </row>
-    <row r="20" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
-      <c r="A20" s="141" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="143"/>
-    </row>
-    <row r="21" spans="1:12" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-    </row>
-    <row r="22" spans="1:12" s="55" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="58">
+      <c r="B15" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+    </row>
+    <row r="16" spans="1:17" s="56" customFormat="1">
+      <c r="A16" s="100"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102"/>
+    </row>
+    <row r="17" spans="1:10" s="55" customFormat="1">
+      <c r="A17" s="63"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="63"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
+    </row>
+    <row r="19" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="100"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="102"/>
+    </row>
+    <row r="20" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
+    </row>
+    <row r="21" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="63">
         <v>1</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="157" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
-    </row>
-    <row r="23" spans="1:12" s="55" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="58">
+      <c r="B22" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="98"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
+    </row>
+    <row r="23" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="63">
         <v>2</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
-    </row>
-    <row r="24" spans="1:12" s="55" customFormat="1">
-      <c r="A24" s="169"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="173"/>
-    </row>
-    <row r="25" spans="1:12" s="55" customFormat="1">
-      <c r="A25" s="141" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
-    </row>
-    <row r="26" spans="1:12" s="55" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="176" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="177"/>
-    </row>
-    <row r="27" spans="1:12" s="72" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-    </row>
-    <row r="28" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="155" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-    </row>
-    <row r="29" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-    </row>
-    <row r="30" spans="1:12" s="55" customFormat="1">
-      <c r="A30" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="127"/>
-    </row>
-    <row r="31" spans="1:12" s="55" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A31" s="108" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="110"/>
-    </row>
-    <row r="32" spans="1:12" s="55" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-    </row>
-    <row r="33" spans="1:10" s="55" customFormat="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="101"/>
-    </row>
-    <row r="34" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="103"/>
-    </row>
-    <row r="35" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="121"/>
-    </row>
-    <row r="36" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="84"/>
-    </row>
-    <row r="37" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="104"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="175"/>
-    </row>
-    <row r="38" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="66"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="84"/>
-    </row>
-    <row r="39" spans="1:10" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="66"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="84"/>
-    </row>
-    <row r="40" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="104"/>
-      <c r="B40" s="174"/>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="175"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="66"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="84"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="70"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="66">
-        <v>1</v>
-      </c>
-      <c r="B43" s="71" t="s">
+      <c r="B23" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="102"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="84"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="66">
-        <v>2</v>
-      </c>
-      <c r="B44" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="23">
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="C22:J23"/>
-    <mergeCell ref="A31:J32"/>
-    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A16:J16"/>
     <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A20:J20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
